--- a/attached_assets/products-import-complete.xlsx
+++ b/attached_assets/products-import-complete.xlsx
@@ -407,7 +407,7 @@
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
@@ -519,7 +519,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>Hytoos</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -549,7 +549,7 @@
         <v/>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>4.82</v>
       </c>
       <c r="Q2" t="str">
         <v>4.11</v>
@@ -593,7 +593,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>Hytoos</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -623,7 +623,7 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="str">
         <v>2.77</v>
@@ -667,7 +667,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>Hytoos</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -697,7 +697,7 @@
         <v/>
       </c>
       <c r="P4" t="str">
-        <v/>
+        <v>3.45</v>
       </c>
       <c r="Q4" t="str">
         <v>2.94</v>
@@ -741,7 +741,7 @@
         <v>Design</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>Guangzhou Fantastic Beauty Nail Co., Ltd.</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -771,7 +771,7 @@
         <v/>
       </c>
       <c r="P5" t="str">
-        <v/>
+        <v>0.7370216606</v>
       </c>
       <c r="Q5" t="str">
         <v>0.63</v>
@@ -815,7 +815,7 @@
         <v>Design</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>Guangzhou Fantastic Beauty Nail Co., Ltd.</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -845,7 +845,7 @@
         <v/>
       </c>
       <c r="P6" t="str">
-        <v/>
+        <v>0.2470216606</v>
       </c>
       <c r="Q6" t="str">
         <v>0.21</v>
@@ -889,7 +889,7 @@
         <v>Design</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>Guangzhou Fantastic Beauty Nail Co., Ltd.</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -919,7 +919,7 @@
         <v/>
       </c>
       <c r="P7" t="str">
-        <v/>
+        <v>0.3070216606</v>
       </c>
       <c r="Q7" t="str">
         <v>0.26</v>
@@ -963,7 +963,7 @@
         <v>Design</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>Guangzhou Fantastic Beauty Nail Co., Ltd.</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -993,7 +993,7 @@
         <v/>
       </c>
       <c r="P8" t="str">
-        <v/>
+        <v>1.027021661</v>
       </c>
       <c r="Q8" t="str">
         <v>0.88</v>
@@ -1037,7 +1037,7 @@
         <v>Tips</v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -1067,7 +1067,7 @@
         <v/>
       </c>
       <c r="P9" t="str">
-        <v/>
+        <v>1.23</v>
       </c>
       <c r="Q9" t="str">
         <v>1.05</v>
@@ -1111,7 +1111,7 @@
         <v>Tips</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -1141,7 +1141,7 @@
         <v/>
       </c>
       <c r="P10" t="str">
-        <v/>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="str">
         <v>1.43</v>
@@ -1185,7 +1185,7 @@
         <v>Tips</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -1215,7 +1215,7 @@
         <v/>
       </c>
       <c r="P11" t="str">
-        <v/>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="str">
         <v>1.42</v>
@@ -1259,7 +1259,7 @@
         <v>Tips</v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -1289,7 +1289,7 @@
         <v/>
       </c>
       <c r="P12" t="str">
-        <v/>
+        <v>1.41</v>
       </c>
       <c r="Q12" t="str">
         <v>1.20</v>
@@ -1333,7 +1333,7 @@
         <v>Design</v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -1363,7 +1363,7 @@
         <v/>
       </c>
       <c r="P13" t="str">
-        <v/>
+        <v>0.96</v>
       </c>
       <c r="Q13" t="str">
         <v>0.82</v>
@@ -1407,7 +1407,7 @@
         <v>Bút</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -1437,7 +1437,7 @@
         <v/>
       </c>
       <c r="P14" t="str">
-        <v/>
+        <v>2.57</v>
       </c>
       <c r="Q14" t="str">
         <v>2.19</v>
@@ -1481,7 +1481,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>YIWU Mylove Jewelry Co.</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -1511,7 +1511,7 @@
         <v/>
       </c>
       <c r="P15" t="str">
-        <v/>
+        <v>0.86</v>
       </c>
       <c r="Q15" t="str">
         <v>0.73</v>
@@ -1555,7 +1555,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v>Hefei Yujinxuan International Trade Co., Ltd.</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -1585,7 +1585,7 @@
         <v/>
       </c>
       <c r="P16" t="str">
-        <v/>
+        <v>0.45</v>
       </c>
       <c r="Q16" t="str">
         <v>0.38</v>
@@ -1629,7 +1629,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>Hefei Yujinxuan International Trade Co., Ltd.</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -1659,7 +1659,7 @@
         <v/>
       </c>
       <c r="P17" t="str">
-        <v/>
+        <v>0.45</v>
       </c>
       <c r="Q17" t="str">
         <v>0.38</v>
@@ -1703,7 +1703,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>Hytoos</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -1733,7 +1733,7 @@
         <v/>
       </c>
       <c r="P18" t="str">
-        <v/>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="str">
         <v>2.53</v>
@@ -1777,7 +1777,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v>Hefei Yujinxuan International Trade Co., Ltd.</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -1807,7 +1807,7 @@
         <v/>
       </c>
       <c r="P19" t="str">
-        <v/>
+        <v>0.7</v>
       </c>
       <c r="Q19" t="str">
         <v>0.60</v>
@@ -1851,7 +1851,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v>Hefei Yujinxuan International Trade Co., Ltd.</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -1881,7 +1881,7 @@
         <v/>
       </c>
       <c r="P20" t="str">
-        <v/>
+        <v>0.7</v>
       </c>
       <c r="Q20" t="str">
         <v>0.60</v>
@@ -1925,7 +1925,7 @@
         <v>Design</v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>Hefei Yujinxuan International Trade Co., Ltd.</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -1955,7 +1955,7 @@
         <v/>
       </c>
       <c r="P21" t="str">
-        <v/>
+        <v>1.8</v>
       </c>
       <c r="Q21" t="str">
         <v>1.54</v>
@@ -1999,7 +1999,7 @@
         <v>Bút</v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v>Jiangxi Yihuale Pen Industry Co., Ltd.</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -2029,7 +2029,7 @@
         <v/>
       </c>
       <c r="P22" t="str">
-        <v/>
+        <v>3.336</v>
       </c>
       <c r="Q22" t="str">
         <v>2.88</v>
@@ -2073,7 +2073,7 @@
         <v>Design</v>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v>TBC</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -2103,7 +2103,7 @@
         <v/>
       </c>
       <c r="P23" t="str">
-        <v/>
+        <v>4.44</v>
       </c>
       <c r="Q23" t="str">
         <v>3.83</v>
@@ -2147,7 +2147,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>TBC</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -2177,7 +2177,7 @@
         <v/>
       </c>
       <c r="P24" t="str">
-        <v/>
+        <v>4.317</v>
       </c>
       <c r="Q24" t="str">
         <v>3.72</v>
@@ -2221,7 +2221,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F25" t="str">
-        <v/>
+        <v>TBC</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -2251,7 +2251,7 @@
         <v/>
       </c>
       <c r="P25" t="str">
-        <v/>
+        <v>4.317</v>
       </c>
       <c r="Q25" t="str">
         <v>3.72</v>
@@ -2295,7 +2295,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F26" t="str">
-        <v/>
+        <v>PLUSCLO</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -2325,7 +2325,7 @@
         <v/>
       </c>
       <c r="P26" t="str">
-        <v/>
+        <v>4.346</v>
       </c>
       <c r="Q26" t="str">
         <v>3.76</v>
@@ -2369,7 +2369,7 @@
         <v>Bút</v>
       </c>
       <c r="F27" t="str">
-        <v/>
+        <v>PLUSCLO</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -2399,7 +2399,7 @@
         <v/>
       </c>
       <c r="P27" t="str">
-        <v/>
+        <v>3.896</v>
       </c>
       <c r="Q27" t="str">
         <v>3.37</v>
@@ -2443,7 +2443,7 @@
         <v>Bút</v>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>PLUSCLO</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -2473,7 +2473,7 @@
         <v/>
       </c>
       <c r="P28" t="str">
-        <v/>
+        <v>3.916</v>
       </c>
       <c r="Q28" t="str">
         <v>3.39</v>
@@ -2517,7 +2517,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>Zhejiang Sowell Commodity Co., Ltd.</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -2547,7 +2547,7 @@
         <v/>
       </c>
       <c r="P29" t="str">
-        <v/>
+        <v>1.129</v>
       </c>
       <c r="Q29" t="str">
         <v>0.97</v>
@@ -2591,7 +2591,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F30" t="str">
-        <v/>
+        <v>Bellinails</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -2621,7 +2621,7 @@
         <v/>
       </c>
       <c r="P30" t="str">
-        <v/>
+        <v>17.646</v>
       </c>
       <c r="Q30" t="str">
         <v>15.23</v>
@@ -2665,7 +2665,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F31" t="str">
-        <v/>
+        <v>TBD</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -2695,7 +2695,7 @@
         <v/>
       </c>
       <c r="P31" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="Q31" t="str">
         <v>3.00</v>
@@ -2739,7 +2739,7 @@
         <v>Design</v>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>Betty</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -2769,7 +2769,7 @@
         <v/>
       </c>
       <c r="P32" t="str">
-        <v/>
+        <v>0.962</v>
       </c>
       <c r="Q32" t="str">
         <v>0.85</v>
@@ -2813,7 +2813,7 @@
         <v>Design</v>
       </c>
       <c r="F33" t="str">
-        <v/>
+        <v>Betty</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -2843,7 +2843,7 @@
         <v/>
       </c>
       <c r="P33" t="str">
-        <v/>
+        <v>1.392</v>
       </c>
       <c r="Q33" t="str">
         <v>1.23</v>
@@ -2887,7 +2887,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F34" t="str">
-        <v/>
+        <v>Betty</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -2917,7 +2917,7 @@
         <v/>
       </c>
       <c r="P34" t="str">
-        <v/>
+        <v>1.842</v>
       </c>
       <c r="Q34" t="str">
         <v>1.63</v>
@@ -2961,7 +2961,7 @@
         <v>Design</v>
       </c>
       <c r="F35" t="str">
-        <v/>
+        <v>TBD</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -2991,7 +2991,7 @@
         <v/>
       </c>
       <c r="P35" t="str">
-        <v/>
+        <v>1.021</v>
       </c>
       <c r="Q35" t="str">
         <v>0.90</v>
@@ -3035,7 +3035,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F36" t="str">
-        <v/>
+        <v>TBD</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -3065,7 +3065,7 @@
         <v/>
       </c>
       <c r="P36" t="str">
-        <v/>
+        <v>4.231</v>
       </c>
       <c r="Q36" t="str">
         <v>3.75</v>
@@ -3109,7 +3109,7 @@
         <v>Bút</v>
       </c>
       <c r="F37" t="str">
-        <v/>
+        <v>TBD</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -3139,7 +3139,7 @@
         <v/>
       </c>
       <c r="P37" t="str">
-        <v/>
+        <v>2.281</v>
       </c>
       <c r="Q37" t="str">
         <v>2.02</v>
@@ -3257,7 +3257,7 @@
         <v>Bút</v>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>Baowang Brush</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -3287,7 +3287,7 @@
         <v/>
       </c>
       <c r="P39" t="str">
-        <v/>
+        <v>3.073</v>
       </c>
       <c r="Q39" t="str">
         <v>2.72</v>
@@ -3331,7 +3331,7 @@
         <v>Design</v>
       </c>
       <c r="F40" t="str">
-        <v/>
+        <v>Again</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -3361,7 +3361,7 @@
         <v/>
       </c>
       <c r="P40" t="str">
-        <v/>
+        <v>0.729</v>
       </c>
       <c r="Q40" t="str">
         <v>0.70</v>
@@ -3405,7 +3405,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F41" t="str">
-        <v/>
+        <v>Again</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -3435,7 +3435,7 @@
         <v/>
       </c>
       <c r="P41" t="str">
-        <v/>
+        <v>0.529</v>
       </c>
       <c r="Q41" t="str">
         <v>0.51</v>
@@ -3479,7 +3479,7 @@
         <v>Design</v>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>Again</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -3509,7 +3509,7 @@
         <v/>
       </c>
       <c r="P42" t="str">
-        <v/>
+        <v>0.379</v>
       </c>
       <c r="Q42" t="str">
         <v>0.36</v>
@@ -3553,7 +3553,7 @@
         <v>Design</v>
       </c>
       <c r="F43" t="str">
-        <v/>
+        <v>Again</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -3583,7 +3583,7 @@
         <v/>
       </c>
       <c r="P43" t="str">
-        <v/>
+        <v>1.169</v>
       </c>
       <c r="Q43" t="str">
         <v>1.12</v>
@@ -3627,7 +3627,7 @@
         <v>Bút</v>
       </c>
       <c r="F44" t="str">
-        <v/>
+        <v>Again</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -3657,7 +3657,7 @@
         <v/>
       </c>
       <c r="P44" t="str">
-        <v/>
+        <v>2.649</v>
       </c>
       <c r="Q44" t="str">
         <v>2.54</v>
@@ -3701,7 +3701,7 @@
         <v>Bút</v>
       </c>
       <c r="F45" t="str">
-        <v/>
+        <v>Again</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -3731,7 +3731,7 @@
         <v/>
       </c>
       <c r="P45" t="str">
-        <v/>
+        <v>2.339</v>
       </c>
       <c r="Q45" t="str">
         <v>2.24</v>
@@ -3775,7 +3775,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F46" t="str">
-        <v/>
+        <v>DBQ</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -3805,7 +3805,7 @@
         <v/>
       </c>
       <c r="P46" t="str">
-        <v/>
+        <v>2.605</v>
       </c>
       <c r="Q46" t="str">
         <v>2.50</v>
@@ -3849,7 +3849,7 @@
         <v>Tips</v>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>TBR</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -3879,7 +3879,7 @@
         <v/>
       </c>
       <c r="P47" t="str">
-        <v/>
+        <v>2.3</v>
       </c>
       <c r="Q47" t="str">
         <v>2.24</v>
@@ -3923,7 +3923,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F48" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=564661078585</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -3953,7 +3953,7 @@
         <v/>
       </c>
       <c r="P48" t="str">
-        <v/>
+        <v>1.83</v>
       </c>
       <c r="Q48" t="str">
         <v>1.58</v>
@@ -3997,7 +3997,7 @@
         <v>Design</v>
       </c>
       <c r="F49" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=649572052571</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -4027,7 +4027,7 @@
         <v/>
       </c>
       <c r="P49" t="str">
-        <v/>
+        <v>0.39</v>
       </c>
       <c r="Q49" t="str">
         <v>0.38</v>
@@ -4071,7 +4071,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F50" t="str">
-        <v/>
+        <v>https://orinail.m.en.alibaba.com</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -4101,7 +4101,7 @@
         <v/>
       </c>
       <c r="P50" t="str">
-        <v/>
+        <v>1.94</v>
       </c>
       <c r="Q50" t="str">
         <v>1.92</v>
@@ -4145,7 +4145,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F51" t="str">
-        <v/>
+        <v>https://unigelsystem.m.en.alibaba.com</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -4175,7 +4175,7 @@
         <v/>
       </c>
       <c r="P51" t="str">
-        <v/>
+        <v>2.04</v>
       </c>
       <c r="Q51" t="str">
         <v>2.02</v>
@@ -4219,7 +4219,7 @@
         <v>Design</v>
       </c>
       <c r="F52" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -4249,7 +4249,7 @@
         <v/>
       </c>
       <c r="P52" t="str">
-        <v/>
+        <v>0.44</v>
       </c>
       <c r="Q52" t="str">
         <v>0.44</v>
@@ -4293,7 +4293,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F53" t="str">
-        <v/>
+        <v>https://mingxia.m.en.alibaba.com/company_profile.html</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -4323,7 +4323,7 @@
         <v/>
       </c>
       <c r="P53" t="str">
-        <v/>
+        <v>3.59</v>
       </c>
       <c r="Q53" t="str">
         <v>3.60</v>
@@ -4367,7 +4367,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F54" t="str">
-        <v/>
+        <v>https://liaoke.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -4397,7 +4397,7 @@
         <v/>
       </c>
       <c r="P54" t="str">
-        <v/>
+        <v>3.59</v>
       </c>
       <c r="Q54" t="str">
         <v>3.60</v>
@@ -4441,7 +4441,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>https://liaoke.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -4471,7 +4471,7 @@
         <v/>
       </c>
       <c r="P55" t="str">
-        <v/>
+        <v>10.59</v>
       </c>
       <c r="Q55" t="str">
         <v>10.63</v>
@@ -4515,7 +4515,7 @@
         <v>Bút</v>
       </c>
       <c r="F56" t="str">
-        <v/>
+        <v>Baowang Brush</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -4545,7 +4545,7 @@
         <v/>
       </c>
       <c r="P56" t="str">
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="Q56" t="str">
         <v>0.80</v>
@@ -4589,7 +4589,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F57" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -4619,7 +4619,7 @@
         <v/>
       </c>
       <c r="P57" t="str">
-        <v/>
+        <v>0.56</v>
       </c>
       <c r="Q57" t="str">
         <v>0.56</v>
@@ -4663,7 +4663,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F58" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -4693,7 +4693,7 @@
         <v/>
       </c>
       <c r="P58" t="str">
-        <v/>
+        <v>2.67</v>
       </c>
       <c r="Q58" t="str">
         <v>2.68</v>
@@ -4737,7 +4737,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F59" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -4767,7 +4767,7 @@
         <v/>
       </c>
       <c r="P59" t="str">
-        <v/>
+        <v>2.67</v>
       </c>
       <c r="Q59" t="str">
         <v>2.68</v>
@@ -4811,7 +4811,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -4841,7 +4841,7 @@
         <v/>
       </c>
       <c r="P60" t="str">
-        <v/>
+        <v>3.73</v>
       </c>
       <c r="Q60" t="str">
         <v>3.74</v>
@@ -4885,7 +4885,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F61" t="str">
-        <v/>
+        <v>https://i-believe.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -4915,7 +4915,7 @@
         <v/>
       </c>
       <c r="P61" t="str">
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="Q61" t="str">
         <v>0.50</v>
@@ -4959,7 +4959,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F62" t="str">
-        <v/>
+        <v>https://i-believe.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -4989,7 +4989,7 @@
         <v/>
       </c>
       <c r="P62" t="str">
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="Q62" t="str">
         <v>1.50</v>
@@ -5033,7 +5033,7 @@
         <v>Design</v>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -5063,7 +5063,7 @@
         <v/>
       </c>
       <c r="P63" t="str">
-        <v/>
+        <v>0.62</v>
       </c>
       <c r="Q63" t="str">
         <v>0.62</v>
@@ -5107,7 +5107,7 @@
         <v>Design</v>
       </c>
       <c r="F64" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=646554569603</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -5137,7 +5137,7 @@
         <v/>
       </c>
       <c r="P64" t="str">
-        <v/>
+        <v>0.26</v>
       </c>
       <c r="Q64" t="str">
         <v>0.26</v>
@@ -5181,7 +5181,7 @@
         <v>Tips</v>
       </c>
       <c r="F65" t="str">
-        <v/>
+        <v>https://vicovi.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -5211,7 +5211,7 @@
         <v/>
       </c>
       <c r="P65" t="str">
-        <v/>
+        <v>2.12</v>
       </c>
       <c r="Q65" t="str">
         <v>2.12</v>
@@ -5255,7 +5255,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F66" t="str">
-        <v/>
+        <v>https://vicovi.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -5285,7 +5285,7 @@
         <v/>
       </c>
       <c r="P66" t="str">
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="Q66" t="str">
         <v>0.60</v>
@@ -5329,7 +5329,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F67" t="str">
-        <v/>
+        <v>https://vicovi.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -5359,7 +5359,7 @@
         <v/>
       </c>
       <c r="P67" t="str">
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="Q67" t="str">
         <v>0.60</v>
@@ -5403,7 +5403,7 @@
         <v>Design</v>
       </c>
       <c r="F68" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -5433,7 +5433,7 @@
         <v/>
       </c>
       <c r="P68" t="str">
-        <v/>
+        <v>0.68</v>
       </c>
       <c r="Q68" t="str">
         <v>0.68</v>
@@ -5477,7 +5477,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F69" t="str">
-        <v/>
+        <v>BIN</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -5507,7 +5507,7 @@
         <v/>
       </c>
       <c r="P69" t="str">
-        <v/>
+        <v>1.79</v>
       </c>
       <c r="Q69" t="str">
         <v>1.84</v>
@@ -5551,7 +5551,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F70" t="str">
-        <v/>
+        <v>https://honhyda.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -5581,7 +5581,7 @@
         <v/>
       </c>
       <c r="P70" t="str">
-        <v/>
+        <v>13.17</v>
       </c>
       <c r="Q70" t="str">
         <v>13.42</v>
@@ -5625,7 +5625,7 @@
         <v>Design</v>
       </c>
       <c r="F71" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=658851912778</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -5655,7 +5655,7 @@
         <v/>
       </c>
       <c r="P71" t="str">
-        <v/>
+        <v>1.52</v>
       </c>
       <c r="Q71" t="str">
         <v>1.55</v>
@@ -5699,7 +5699,7 @@
         <v>Design</v>
       </c>
       <c r="F72" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=670885013270</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -5729,7 +5729,7 @@
         <v/>
       </c>
       <c r="P72" t="str">
-        <v/>
+        <v>0.82</v>
       </c>
       <c r="Q72" t="str">
         <v>0.84</v>
@@ -5773,7 +5773,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F73" t="str">
-        <v/>
+        <v>https://jting.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -5803,7 +5803,7 @@
         <v/>
       </c>
       <c r="P73" t="str">
-        <v/>
+        <v>1.08</v>
       </c>
       <c r="Q73" t="str">
         <v>1.10</v>
@@ -5847,7 +5847,7 @@
         <v>Design</v>
       </c>
       <c r="F74" t="str">
-        <v/>
+        <v>https://jting.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -5877,7 +5877,7 @@
         <v/>
       </c>
       <c r="P74" t="str">
-        <v/>
+        <v>1.18</v>
       </c>
       <c r="Q74" t="str">
         <v>1.20</v>
@@ -5921,7 +5921,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F75" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/company_profile.html</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -5951,7 +5951,7 @@
         <v/>
       </c>
       <c r="P75" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="Q75" t="str">
         <v>8.83</v>
@@ -5995,7 +5995,7 @@
         <v>Tips</v>
       </c>
       <c r="F76" t="str">
-        <v/>
+        <v>https://vicovi.m.en.alibaba.com/company_profile.html</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -6025,7 +6025,7 @@
         <v/>
       </c>
       <c r="P76" t="str">
-        <v/>
+        <v>1.4</v>
       </c>
       <c r="Q76" t="str">
         <v>1.37</v>
@@ -6069,7 +6069,7 @@
         <v>Tips</v>
       </c>
       <c r="F77" t="str">
-        <v/>
+        <v>https://i-believe.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -6099,7 +6099,7 @@
         <v/>
       </c>
       <c r="P77" t="str">
-        <v/>
+        <v>0.45</v>
       </c>
       <c r="Q77" t="str">
         <v>0.44</v>
@@ -6143,7 +6143,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F78" t="str">
-        <v/>
+        <v>https://i-believe.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -6173,7 +6173,7 @@
         <v/>
       </c>
       <c r="P78" t="str">
-        <v/>
+        <v>1.13</v>
       </c>
       <c r="Q78" t="str">
         <v>1.11</v>
@@ -6217,7 +6217,7 @@
         <v>Design</v>
       </c>
       <c r="F79" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -6247,7 +6247,7 @@
         <v/>
       </c>
       <c r="P79" t="str">
-        <v/>
+        <v>0.4</v>
       </c>
       <c r="Q79" t="str">
         <v>0.39</v>
@@ -6291,7 +6291,7 @@
         <v>Design</v>
       </c>
       <c r="F80" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -6321,7 +6321,7 @@
         <v/>
       </c>
       <c r="P80" t="str">
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="Q80" t="str">
         <v>0.78</v>
@@ -6365,7 +6365,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F81" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=644449092826</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -6395,7 +6395,7 @@
         <v/>
       </c>
       <c r="P81" t="str">
-        <v/>
+        <v>1.77</v>
       </c>
       <c r="Q81" t="str">
         <v>1.67</v>
@@ -6439,7 +6439,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F82" t="str">
-        <v/>
+        <v>https://kaxma.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -6469,7 +6469,7 @@
         <v/>
       </c>
       <c r="P82" t="str">
-        <v/>
+        <v>50.67</v>
       </c>
       <c r="Q82" t="str">
         <v>47.69</v>
@@ -6513,7 +6513,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F83" t="str">
-        <v/>
+        <v>Hefei</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -6543,7 +6543,7 @@
         <v/>
       </c>
       <c r="P83" t="str">
-        <v/>
+        <v>1.47</v>
       </c>
       <c r="Q83" t="str">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F84" t="str">
-        <v/>
+        <v>Hefei</v>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -6617,7 +6617,7 @@
         <v/>
       </c>
       <c r="P84" t="str">
-        <v/>
+        <v>1.4</v>
       </c>
       <c r="Q84" t="str">
         <v>1.32</v>
@@ -6661,7 +6661,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F85" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -6691,7 +6691,7 @@
         <v/>
       </c>
       <c r="P85" t="str">
-        <v/>
+        <v>2.37</v>
       </c>
       <c r="Q85" t="str">
         <v>2.23</v>
@@ -6735,7 +6735,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F86" t="str">
-        <v/>
+        <v>Hefei</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -6765,7 +6765,7 @@
         <v/>
       </c>
       <c r="P86" t="str">
-        <v/>
+        <v>2.02</v>
       </c>
       <c r="Q86" t="str">
         <v>1.90</v>
@@ -6809,7 +6809,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F87" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B00Qej?ck=minisite</v>
       </c>
       <c r="G87" t="str">
         <v/>
@@ -6839,7 +6839,7 @@
         <v/>
       </c>
       <c r="P87" t="str">
-        <v/>
+        <v>15.194</v>
       </c>
       <c r="Q87" t="str">
         <v>12.87</v>
@@ -6883,7 +6883,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F88" t="str">
-        <v/>
+        <v>Tran Ngot</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -6913,7 +6913,7 @@
         <v/>
       </c>
       <c r="P88" t="str">
-        <v/>
+        <v>0.71</v>
       </c>
       <c r="Q88" t="str">
         <v>0.67</v>
@@ -6957,7 +6957,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F89" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -6987,7 +6987,7 @@
         <v/>
       </c>
       <c r="P89" t="str">
-        <v/>
+        <v>2.48</v>
       </c>
       <c r="Q89" t="str">
         <v>2.33</v>
@@ -7031,7 +7031,7 @@
         <v>Bút</v>
       </c>
       <c r="F90" t="str">
-        <v/>
+        <v>Joyrich</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -7061,7 +7061,7 @@
         <v/>
       </c>
       <c r="P90" t="str">
-        <v/>
+        <v>32.2</v>
       </c>
       <c r="Q90" t="str">
         <v>30.31</v>
@@ -7105,7 +7105,7 @@
         <v>Bút</v>
       </c>
       <c r="F91" t="str">
-        <v/>
+        <v>Yihuale</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -7135,7 +7135,7 @@
         <v/>
       </c>
       <c r="P91" t="str">
-        <v/>
+        <v>2.95</v>
       </c>
       <c r="Q91" t="str">
         <v>2.78</v>
@@ -7179,7 +7179,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F92" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=650604977308</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -7209,7 +7209,7 @@
         <v/>
       </c>
       <c r="P92" t="str">
-        <v/>
+        <v>1.04</v>
       </c>
       <c r="Q92" t="str">
         <v>0.98</v>
@@ -7253,7 +7253,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F93" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -7283,7 +7283,7 @@
         <v/>
       </c>
       <c r="P93" t="str">
-        <v/>
+        <v>3.64</v>
       </c>
       <c r="Q93" t="str">
         <v>3.46</v>
@@ -7327,7 +7327,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F94" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -7357,7 +7357,7 @@
         <v/>
       </c>
       <c r="P94" t="str">
-        <v/>
+        <v>3.64</v>
       </c>
       <c r="Q94" t="str">
         <v>3.46</v>
@@ -7401,7 +7401,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F95" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/company_profile.html</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -7431,7 +7431,7 @@
         <v/>
       </c>
       <c r="P95" t="str">
-        <v/>
+        <v>1.37</v>
       </c>
       <c r="Q95" t="str">
         <v>1.28</v>
@@ -7475,7 +7475,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F96" t="str">
-        <v/>
+        <v>1688-vchat</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -7505,7 +7505,7 @@
         <v/>
       </c>
       <c r="P96" t="str">
-        <v/>
+        <v>3.75</v>
       </c>
       <c r="Q96" t="str">
         <v>3.49</v>
@@ -7549,7 +7549,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F97" t="str">
-        <v/>
+        <v>1688-vchat</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -7579,7 +7579,7 @@
         <v/>
       </c>
       <c r="P97" t="str">
-        <v/>
+        <v>3.75</v>
       </c>
       <c r="Q97" t="str">
         <v>3.49</v>
@@ -7623,7 +7623,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F98" t="str">
-        <v/>
+        <v>https://charmcore.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -7653,7 +7653,7 @@
         <v/>
       </c>
       <c r="P98" t="str">
-        <v/>
+        <v>0.64</v>
       </c>
       <c r="Q98" t="str">
         <v>0.60</v>
@@ -7697,7 +7697,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F99" t="str">
-        <v/>
+        <v>Baowang</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -7727,7 +7727,7 @@
         <v/>
       </c>
       <c r="P99" t="str">
-        <v/>
+        <v>8.68</v>
       </c>
       <c r="Q99" t="str">
         <v>8.01</v>
@@ -7771,7 +7771,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F100" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -7801,7 +7801,7 @@
         <v/>
       </c>
       <c r="P100" t="str">
-        <v/>
+        <v>3.038</v>
       </c>
       <c r="Q100" t="str">
         <v>2.64</v>
@@ -7845,7 +7845,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F101" t="str">
-        <v/>
+        <v>Huiaian Gel - vchat</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -7875,7 +7875,7 @@
         <v/>
       </c>
       <c r="P101" t="str">
-        <v/>
+        <v>0.83</v>
       </c>
       <c r="Q101" t="str">
         <v>0.75</v>
@@ -7919,7 +7919,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F102" t="str">
-        <v/>
+        <v>NSN</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -7949,7 +7949,7 @@
         <v/>
       </c>
       <c r="P102" t="str">
-        <v/>
+        <v>0.43</v>
       </c>
       <c r="Q102" t="str">
         <v>0.39</v>
@@ -7993,7 +7993,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F103" t="str">
-        <v/>
+        <v>Aosmei</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -8023,7 +8023,7 @@
         <v/>
       </c>
       <c r="P103" t="str">
-        <v/>
+        <v>5.36</v>
       </c>
       <c r="Q103" t="str">
         <v>4.87</v>
@@ -8067,7 +8067,7 @@
         <v>Tips</v>
       </c>
       <c r="F104" t="str">
-        <v/>
+        <v>https://i-believe.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_9e6970c106ed408eb9bc5e6c7f05f9fe</v>
       </c>
       <c r="G104" t="str">
         <v/>
@@ -8097,7 +8097,7 @@
         <v/>
       </c>
       <c r="P104" t="str">
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="Q104" t="str">
         <v>0.28</v>
@@ -8141,7 +8141,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F105" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=659065456090</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -8171,7 +8171,7 @@
         <v/>
       </c>
       <c r="P105" t="str">
-        <v/>
+        <v>4.54</v>
       </c>
       <c r="Q105" t="str">
         <v>4.14</v>
@@ -8215,7 +8215,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F106" t="str">
-        <v/>
+        <v>https://novalbeauty.m.en.alibaba.com/company_profile.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_b461dbbe4d0349f69459beffa6fd262d</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -8245,7 +8245,7 @@
         <v/>
       </c>
       <c r="P106" t="str">
-        <v/>
+        <v>160.62</v>
       </c>
       <c r="Q106" t="str">
         <v>147.18</v>
@@ -8289,7 +8289,7 @@
         <v>Design</v>
       </c>
       <c r="F107" t="str">
-        <v/>
+        <v>https://diynailpolish.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_f08958a6b44b41bca003d5bc1bc3fe0d</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -8319,7 +8319,7 @@
         <v/>
       </c>
       <c r="P107" t="str">
-        <v/>
+        <v>3.19</v>
       </c>
       <c r="Q107" t="str">
         <v>2.86</v>
@@ -8363,7 +8363,7 @@
         <v>Bút</v>
       </c>
       <c r="F108" t="str">
-        <v/>
+        <v>https://yalixin.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_70fde0c0b26544ce82b905391b0e1b56</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -8393,7 +8393,7 @@
         <v/>
       </c>
       <c r="P108" t="str">
-        <v/>
+        <v>22.27</v>
       </c>
       <c r="Q108" t="str">
         <v>20.02</v>
@@ -8437,7 +8437,7 @@
         <v>Bút</v>
       </c>
       <c r="F109" t="str">
-        <v/>
+        <v>https://bwbrush.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_fe590237805647ccb9014088011a323a</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -8467,7 +8467,7 @@
         <v/>
       </c>
       <c r="P109" t="str">
-        <v/>
+        <v>2.7</v>
       </c>
       <c r="Q109" t="str">
         <v>2.43</v>
@@ -8511,7 +8511,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F110" t="str">
-        <v/>
+        <v>https://kaxma.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_893c91cb5a4648e4985e2b5edee239fc</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -8541,7 +8541,7 @@
         <v/>
       </c>
       <c r="P110" t="str">
-        <v/>
+        <v>5.28</v>
       </c>
       <c r="Q110" t="str">
         <v>4.75</v>
@@ -8585,7 +8585,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F111" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -8615,7 +8615,7 @@
         <v/>
       </c>
       <c r="P111" t="str">
-        <v/>
+        <v>3.33</v>
       </c>
       <c r="Q111" t="str">
         <v>2.99</v>
@@ -8659,7 +8659,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F112" t="str">
-        <v/>
+        <v>https://mobile.yangkeduo.com/goods1.html?goods_id=70480066751&amp;page_from=101&amp;pxq_secret_key=DPCCZCQ3HB7CJMWXZL4CZZF7KLQG2FRVQGQQD4KWRZZVE7VVD42Q&amp;_oak_share_snapshot_num=345&amp;_oak_share_detail_id=2394207588&amp;_oak_share_time=1690137736&amp;share_uin=LMFXQUT2Z5PQEI6DL5HUNYXJJI_GEXDA&amp;refer_share_id=a0437d64a0054cd3b8ef1862bab21f78&amp;refer_share_uin=LMFXQUT2Z5PQEI6DL5HUNYXJJI_GEXDA&amp;refer_share_channel=copy_link&amp;refer_share_form=text</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -8689,7 +8689,7 @@
         <v/>
       </c>
       <c r="P112" t="str">
-        <v/>
+        <v>2.32</v>
       </c>
       <c r="Q112" t="str">
         <v>2.09</v>
@@ -8733,7 +8733,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F113" t="str">
-        <v/>
+        <v>https://vinimay.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_25327474c8234b57bbae310757027b52</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -8763,7 +8763,7 @@
         <v/>
       </c>
       <c r="P113" t="str">
-        <v/>
+        <v>40.31</v>
       </c>
       <c r="Q113" t="str">
         <v>37.09</v>
@@ -8807,7 +8807,7 @@
         <v>Design</v>
       </c>
       <c r="F114" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9badz?ck=minisite</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -8837,7 +8837,7 @@
         <v/>
       </c>
       <c r="P114" t="str">
-        <v/>
+        <v>5.657</v>
       </c>
       <c r="Q114" t="str">
         <v>4.82</v>
@@ -8881,7 +8881,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F115" t="str">
-        <v/>
+        <v>https://orinail.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_9bb4e39e42844ceb9078554f36d81029</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -8911,7 +8911,7 @@
         <v/>
       </c>
       <c r="P115" t="str">
-        <v/>
+        <v>14.31</v>
       </c>
       <c r="Q115" t="str">
         <v>13.17</v>
@@ -8955,7 +8955,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F116" t="str">
-        <v/>
+        <v>https://xmpumice.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_b24e38df700640e6a097da644812b266</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -8985,7 +8985,7 @@
         <v/>
       </c>
       <c r="P116" t="str">
-        <v/>
+        <v>23.185</v>
       </c>
       <c r="Q116" t="str">
         <v>21.74</v>
@@ -9029,7 +9029,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F117" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -9059,7 +9059,7 @@
         <v/>
       </c>
       <c r="P117" t="str">
-        <v/>
+        <v>1.19</v>
       </c>
       <c r="Q117" t="str">
         <v>1.12</v>
@@ -9103,7 +9103,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F118" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -9133,7 +9133,7 @@
         <v/>
       </c>
       <c r="P118" t="str">
-        <v/>
+        <v>3.29</v>
       </c>
       <c r="Q118" t="str">
         <v>3.09</v>
@@ -9177,7 +9177,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F119" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -9207,7 +9207,7 @@
         <v/>
       </c>
       <c r="P119" t="str">
-        <v/>
+        <v>3.29</v>
       </c>
       <c r="Q119" t="str">
         <v>3.09</v>
@@ -9251,7 +9251,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F120" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -9281,7 +9281,7 @@
         <v/>
       </c>
       <c r="P120" t="str">
-        <v/>
+        <v>3.49</v>
       </c>
       <c r="Q120" t="str">
         <v>3.28</v>
@@ -9325,7 +9325,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F121" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -9355,7 +9355,7 @@
         <v/>
       </c>
       <c r="P121" t="str">
-        <v/>
+        <v>3.49</v>
       </c>
       <c r="Q121" t="str">
         <v>3.28</v>
@@ -9399,7 +9399,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F122" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -9429,7 +9429,7 @@
         <v/>
       </c>
       <c r="P122" t="str">
-        <v/>
+        <v>0.39</v>
       </c>
       <c r="Q122" t="str">
         <v>0.37</v>
@@ -9473,7 +9473,7 @@
         <v>Bút</v>
       </c>
       <c r="F123" t="str">
-        <v/>
+        <v>https://yalixin.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_134e9a7cfe724a84ad8e1d27ebbc628a</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -9503,7 +9503,7 @@
         <v/>
       </c>
       <c r="P123" t="str">
-        <v/>
+        <v>21.73</v>
       </c>
       <c r="Q123" t="str">
         <v>20.41</v>
@@ -9547,7 +9547,7 @@
         <v>Design</v>
       </c>
       <c r="F124" t="str">
-        <v/>
+        <v>https://jting.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_7be69ad4725b4df8a7d126e4647adb79</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -9577,7 +9577,7 @@
         <v/>
       </c>
       <c r="P124" t="str">
-        <v/>
+        <v>2.54</v>
       </c>
       <c r="Q124" t="str">
         <v>2.42</v>
@@ -9621,7 +9621,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F125" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzbocS?ck=minisite</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -9651,7 +9651,7 @@
         <v/>
       </c>
       <c r="P125" t="str">
-        <v/>
+        <v>11.831</v>
       </c>
       <c r="Q125" t="str">
         <v>10.51</v>
@@ -9695,7 +9695,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F126" t="str">
-        <v/>
+        <v>Beshyne</v>
       </c>
       <c r="G126" t="str">
         <v/>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="P126" t="str">
-        <v/>
+        <v>3.745</v>
       </c>
       <c r="Q126" t="str">
         <v>3.21</v>
@@ -9769,7 +9769,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F127" t="str">
-        <v/>
+        <v>https://xmpumice.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_c578aafc580c424097d4ce07fad5606b</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -9799,7 +9799,7 @@
         <v/>
       </c>
       <c r="P127" t="str">
-        <v/>
+        <v>21.84</v>
       </c>
       <c r="Q127" t="str">
         <v>20.28</v>
@@ -9843,7 +9843,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F128" t="str">
-        <v/>
+        <v>https://xmpumice.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_c578aafc580c424097d4ce07fad5606b</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -9873,7 +9873,7 @@
         <v/>
       </c>
       <c r="P128" t="str">
-        <v/>
+        <v>0.45</v>
       </c>
       <c r="Q128" t="str">
         <v>0.42</v>
@@ -9917,7 +9917,7 @@
         <v>Tips</v>
       </c>
       <c r="F129" t="str">
-        <v/>
+        <v>https://i-believe.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_d1191dc4aebf4fe58c6d57e0455881aa</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -9947,7 +9947,7 @@
         <v/>
       </c>
       <c r="P129" t="str">
-        <v/>
+        <v>0.65</v>
       </c>
       <c r="Q129" t="str">
         <v>0.60</v>
@@ -9991,7 +9991,7 @@
         <v>Design</v>
       </c>
       <c r="F130" t="str">
-        <v/>
+        <v>https://kingch.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_f2735d87c1fd4b1fb23bd0c235122019</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -10021,7 +10021,7 @@
         <v/>
       </c>
       <c r="P130" t="str">
-        <v/>
+        <v>2.57</v>
       </c>
       <c r="Q130" t="str">
         <v>2.39</v>
@@ -10065,7 +10065,7 @@
         <v>Design</v>
       </c>
       <c r="F131" t="str">
-        <v/>
+        <v>https://kingch.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_f2735d87c1fd4b1fb23bd0c235122019</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -10095,7 +10095,7 @@
         <v/>
       </c>
       <c r="P131" t="str">
-        <v/>
+        <v>1.29</v>
       </c>
       <c r="Q131" t="str">
         <v>1.20</v>
@@ -10139,7 +10139,7 @@
         <v>Design</v>
       </c>
       <c r="F132" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvFVic?ck=pdp</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -10169,7 +10169,7 @@
         <v/>
       </c>
       <c r="P132" t="str">
-        <v/>
+        <v>2.05</v>
       </c>
       <c r="Q132" t="str">
         <v>1.90</v>
@@ -10213,7 +10213,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F133" t="str">
-        <v/>
+        <v>https://lnbeautycare.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_82c4adc0971b437886bd4fe37972c29d</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -10243,7 +10243,7 @@
         <v/>
       </c>
       <c r="P133" t="str">
-        <v/>
+        <v>1.74</v>
       </c>
       <c r="Q133" t="str">
         <v>1.62</v>
@@ -10287,7 +10287,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F134" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_ca3374b0d75246e8ab5d15d22a58f441</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -10317,7 +10317,7 @@
         <v/>
       </c>
       <c r="P134" t="str">
-        <v/>
+        <v>2.49</v>
       </c>
       <c r="Q134" t="str">
         <v>2.31</v>
@@ -10361,7 +10361,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F135" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_ca3374b0d75246e8ab5d15d22a58f441</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -10391,7 +10391,7 @@
         <v/>
       </c>
       <c r="P135" t="str">
-        <v/>
+        <v>2.78</v>
       </c>
       <c r="Q135" t="str">
         <v>2.58</v>
@@ -10435,7 +10435,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F136" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_ca3374b0d75246e8ab5d15d22a58f441</v>
       </c>
       <c r="G136" t="str">
         <v/>
@@ -10465,7 +10465,7 @@
         <v/>
       </c>
       <c r="P136" t="str">
-        <v/>
+        <v>2.49</v>
       </c>
       <c r="Q136" t="str">
         <v>2.31</v>
@@ -10509,7 +10509,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F137" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=848686225075</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -10539,7 +10539,7 @@
         <v/>
       </c>
       <c r="P137" t="str">
-        <v/>
+        <v>1.19</v>
       </c>
       <c r="Q137" t="str">
         <v>1.01</v>
@@ -10583,7 +10583,7 @@
         <v>Design</v>
       </c>
       <c r="F138" t="str">
-        <v/>
+        <v>https://kingch.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_f2735d87c1fd4b1fb23bd0c235122019</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -10613,7 +10613,7 @@
         <v/>
       </c>
       <c r="P138" t="str">
-        <v/>
+        <v>0.8725</v>
       </c>
       <c r="Q138" t="str">
         <v>0.81</v>
@@ -10657,7 +10657,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F139" t="str">
-        <v/>
+        <v>DV golden nails</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -10687,7 +10687,7 @@
         <v/>
       </c>
       <c r="P139" t="str">
-        <v/>
+        <v>19.62</v>
       </c>
       <c r="Q139" t="str">
         <v>17.92</v>
@@ -10731,7 +10731,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F140" t="str">
-        <v/>
+        <v>DV golden nails</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -10761,7 +10761,7 @@
         <v/>
       </c>
       <c r="P140" t="str">
-        <v/>
+        <v>49.05</v>
       </c>
       <c r="Q140" t="str">
         <v>44.81</v>
@@ -10805,7 +10805,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F141" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_355cc2e0b6c04c458abc1936263f8b62</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -10835,7 +10835,7 @@
         <v/>
       </c>
       <c r="P141" t="str">
-        <v/>
+        <v>2.09</v>
       </c>
       <c r="Q141" t="str">
         <v>1.91</v>
@@ -10879,7 +10879,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F142" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_355cc2e0b6c04c458abc1936263f8b62</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -10909,7 +10909,7 @@
         <v/>
       </c>
       <c r="P142" t="str">
-        <v/>
+        <v>17.03</v>
       </c>
       <c r="Q142" t="str">
         <v>15.60</v>
@@ -10953,7 +10953,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F143" t="str">
-        <v/>
+        <v>https://bolly.m.en.alibaba.com/index.html?wx_navbar_transparent=true&amp;tracelog=sns_minisite&amp;from=share&amp;ckvia=share_355cc2e0b6c04c458abc1936263f8b62</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -10983,7 +10983,7 @@
         <v/>
       </c>
       <c r="P143" t="str">
-        <v/>
+        <v>1.41</v>
       </c>
       <c r="Q143" t="str">
         <v>1.29</v>
@@ -11027,7 +11027,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F144" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvWs2m?ck=minisite</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -11057,7 +11057,7 @@
         <v/>
       </c>
       <c r="P144" t="str">
-        <v/>
+        <v>35.4</v>
       </c>
       <c r="Q144" t="str">
         <v>32.55</v>
@@ -11101,7 +11101,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F145" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvWs2m?ck=minisite</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -11131,7 +11131,7 @@
         <v/>
       </c>
       <c r="P145" t="str">
-        <v/>
+        <v>2.9</v>
       </c>
       <c r="Q145" t="str">
         <v>2.67</v>
@@ -11175,7 +11175,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F146" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvWs2m?ck=minisite</v>
       </c>
       <c r="G146" t="str">
         <v/>
@@ -11205,7 +11205,7 @@
         <v/>
       </c>
       <c r="P146" t="str">
-        <v/>
+        <v>2.9</v>
       </c>
       <c r="Q146" t="str">
         <v>2.67</v>
@@ -11249,7 +11249,7 @@
         <v>Bột</v>
       </c>
       <c r="F147" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G147" t="str">
         <v/>
@@ -11279,7 +11279,7 @@
         <v/>
       </c>
       <c r="P147" t="str">
-        <v/>
+        <v>20.95</v>
       </c>
       <c r="Q147" t="str">
         <v>19.27</v>
@@ -11323,7 +11323,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F148" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="P148" t="str">
-        <v/>
+        <v>76.896</v>
       </c>
       <c r="Q148" t="str">
         <v>67.29</v>
@@ -11397,7 +11397,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F149" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Avz0TD?ck=minisite</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -11427,7 +11427,7 @@
         <v/>
       </c>
       <c r="P149" t="str">
-        <v/>
+        <v>19.905</v>
       </c>
       <c r="Q149" t="str">
         <v>18.27</v>
@@ -11471,7 +11471,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F150" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Avz14z?ck=minisite</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -11501,7 +11501,7 @@
         <v/>
       </c>
       <c r="P150" t="str">
-        <v/>
+        <v>25.582</v>
       </c>
       <c r="Q150" t="str">
         <v>23.49</v>
@@ -11545,7 +11545,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F151" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Avz14z?ck=minisite</v>
       </c>
       <c r="G151" t="str">
         <v/>
@@ -11575,7 +11575,7 @@
         <v/>
       </c>
       <c r="P151" t="str">
-        <v/>
+        <v>1.681</v>
       </c>
       <c r="Q151" t="str">
         <v>1.54</v>
@@ -11619,7 +11619,7 @@
         <v>Bột</v>
       </c>
       <c r="F152" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Avz1sf?ck=minisite</v>
       </c>
       <c r="G152" t="str">
         <v/>
@@ -11649,7 +11649,7 @@
         <v/>
       </c>
       <c r="P152" t="str">
-        <v/>
+        <v>3.612</v>
       </c>
       <c r="Q152" t="str">
         <v>3.32</v>
@@ -11693,7 +11693,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F153" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADJbw?ck=minisite</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -11723,7 +11723,7 @@
         <v/>
       </c>
       <c r="P153" t="str">
-        <v/>
+        <v>76.935</v>
       </c>
       <c r="Q153" t="str">
         <v>66.30</v>
@@ -11767,7 +11767,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F154" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvzQXH?ck=minisite</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -11797,7 +11797,7 @@
         <v/>
       </c>
       <c r="P154" t="str">
-        <v/>
+        <v>6.592</v>
       </c>
       <c r="Q154" t="str">
         <v>6.05</v>
@@ -11841,7 +11841,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F155" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvzQXH?ck=minisite</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -11871,7 +11871,7 @@
         <v/>
       </c>
       <c r="P155" t="str">
-        <v/>
+        <v>39.654</v>
       </c>
       <c r="Q155" t="str">
         <v>36.41</v>
@@ -11915,7 +11915,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F156" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvzRXn?ck=minisite</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -11945,7 +11945,7 @@
         <v/>
       </c>
       <c r="P156" t="str">
-        <v/>
+        <v>0.678</v>
       </c>
       <c r="Q156" t="str">
         <v>0.62</v>
@@ -11989,7 +11989,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F157" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvzRXn?ck=minisite</v>
       </c>
       <c r="G157" t="str">
         <v/>
@@ -12019,7 +12019,7 @@
         <v/>
       </c>
       <c r="P157" t="str">
-        <v/>
+        <v>104.351</v>
       </c>
       <c r="Q157" t="str">
         <v>95.81</v>
@@ -12063,7 +12063,7 @@
         <v>Dũa</v>
       </c>
       <c r="F158" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AvzRee?ck=minisite</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -12093,7 +12093,7 @@
         <v/>
       </c>
       <c r="P158" t="str">
-        <v/>
+        <v>5.218</v>
       </c>
       <c r="Q158" t="str">
         <v>4.79</v>
@@ -12137,7 +12137,7 @@
         <v>Tips</v>
       </c>
       <c r="F159" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Aw4ZEH?ck=minisite</v>
       </c>
       <c r="G159" t="str">
         <v/>
@@ -12167,7 +12167,7 @@
         <v/>
       </c>
       <c r="P159" t="str">
-        <v/>
+        <v>2.273</v>
       </c>
       <c r="Q159" t="str">
         <v>2.10</v>
@@ -12211,7 +12211,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F160" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwF9vE?ck=minisite</v>
       </c>
       <c r="G160" t="str">
         <v/>
@@ -12241,7 +12241,7 @@
         <v/>
       </c>
       <c r="P160" t="str">
-        <v/>
+        <v>25.969</v>
       </c>
       <c r="Q160" t="str">
         <v>24.32</v>
@@ -12285,7 +12285,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F161" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwF9vE?ck=minisite</v>
       </c>
       <c r="G161" t="str">
         <v/>
@@ -12315,7 +12315,7 @@
         <v/>
       </c>
       <c r="P161" t="str">
-        <v/>
+        <v>2.597</v>
       </c>
       <c r="Q161" t="str">
         <v>2.43</v>
@@ -12359,7 +12359,7 @@
         <v>Bột</v>
       </c>
       <c r="F162" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -12389,7 +12389,7 @@
         <v/>
       </c>
       <c r="P162" t="str">
-        <v/>
+        <v>22.907</v>
       </c>
       <c r="Q162" t="str">
         <v>19.75</v>
@@ -12433,7 +12433,7 @@
         <v>Bút</v>
       </c>
       <c r="F163" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vO6R?ck=minisite</v>
       </c>
       <c r="G163" t="str">
         <v/>
@@ -12463,7 +12463,7 @@
         <v/>
       </c>
       <c r="P163" t="str">
-        <v/>
+        <v>7.868</v>
       </c>
       <c r="Q163" t="str">
         <v>6.78</v>
@@ -12507,7 +12507,7 @@
         <v>Bút</v>
       </c>
       <c r="F164" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vO6R?ck=minisite</v>
       </c>
       <c r="G164" t="str">
         <v/>
@@ -12537,7 +12537,7 @@
         <v/>
       </c>
       <c r="P164" t="str">
-        <v/>
+        <v>22.653</v>
       </c>
       <c r="Q164" t="str">
         <v>19.53</v>
@@ -12581,7 +12581,7 @@
         <v>Bút</v>
       </c>
       <c r="F165" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwOLq8?ck=minisite</v>
       </c>
       <c r="G165" t="str">
         <v/>
@@ -12611,7 +12611,7 @@
         <v/>
       </c>
       <c r="P165" t="str">
-        <v/>
+        <v>0.884</v>
       </c>
       <c r="Q165" t="str">
         <v>0.82</v>
@@ -12655,7 +12655,7 @@
         <v>Bút</v>
       </c>
       <c r="F166" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwOLq8?ck=minisite</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -12685,7 +12685,7 @@
         <v/>
       </c>
       <c r="P166" t="str">
-        <v/>
+        <v>1.712</v>
       </c>
       <c r="Q166" t="str">
         <v>1.59</v>
@@ -12729,7 +12729,7 @@
         <v>Bút</v>
       </c>
       <c r="F167" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwOLq8?ck=minisite</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -12759,7 +12759,7 @@
         <v/>
       </c>
       <c r="P167" t="str">
-        <v/>
+        <v>1.602</v>
       </c>
       <c r="Q167" t="str">
         <v>1.49</v>
@@ -12803,7 +12803,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F168" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPkcD?ck=minisite</v>
       </c>
       <c r="G168" t="str">
         <v/>
@@ -12833,7 +12833,7 @@
         <v/>
       </c>
       <c r="P168" t="str">
-        <v/>
+        <v>2.614</v>
       </c>
       <c r="Q168" t="str">
         <v>2.43</v>
@@ -12877,7 +12877,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F169" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPl5N?ck=minisite</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -12907,7 +12907,7 @@
         <v/>
       </c>
       <c r="P169" t="str">
-        <v/>
+        <v>2.76</v>
       </c>
       <c r="Q169" t="str">
         <v>2.57</v>
@@ -12951,7 +12951,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F170" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPl5N?ck=minisite</v>
       </c>
       <c r="G170" t="str">
         <v/>
@@ -12981,7 +12981,7 @@
         <v/>
       </c>
       <c r="P170" t="str">
-        <v/>
+        <v>2.614</v>
       </c>
       <c r="Q170" t="str">
         <v>2.43</v>
@@ -13025,7 +13025,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F171" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPl5N?ck=minisite</v>
       </c>
       <c r="G171" t="str">
         <v/>
@@ -13055,7 +13055,7 @@
         <v/>
       </c>
       <c r="P171" t="str">
-        <v/>
+        <v>2.457</v>
       </c>
       <c r="Q171" t="str">
         <v>2.29</v>
@@ -13099,7 +13099,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F172" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPl5N?ck=minisite</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -13129,7 +13129,7 @@
         <v/>
       </c>
       <c r="P172" t="str">
-        <v/>
+        <v>2.719</v>
       </c>
       <c r="Q172" t="str">
         <v>2.53</v>
@@ -13173,7 +13173,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F173" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPlPc?ck=minisite</v>
       </c>
       <c r="G173" t="str">
         <v/>
@@ -13203,7 +13203,7 @@
         <v/>
       </c>
       <c r="P173" t="str">
-        <v/>
+        <v>3.032</v>
       </c>
       <c r="Q173" t="str">
         <v>2.82</v>
@@ -13247,7 +13247,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F174" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwPl5N?ck=minisite</v>
       </c>
       <c r="G174" t="str">
         <v/>
@@ -13277,7 +13277,7 @@
         <v/>
       </c>
       <c r="P174" t="str">
-        <v/>
+        <v>2.032</v>
       </c>
       <c r="Q174" t="str">
         <v>1.87</v>
@@ -13321,7 +13321,7 @@
         <v>Bút</v>
       </c>
       <c r="F175" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwYSgU?ck=minisite</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -13351,7 +13351,7 @@
         <v/>
       </c>
       <c r="P175" t="str">
-        <v/>
+        <v>1.802</v>
       </c>
       <c r="Q175" t="str">
         <v>1.66</v>
@@ -13395,7 +13395,7 @@
         <v>Bút</v>
       </c>
       <c r="F176" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwYSgU?ck=minisite</v>
       </c>
       <c r="G176" t="str">
         <v/>
@@ -13425,7 +13425,7 @@
         <v/>
       </c>
       <c r="P176" t="str">
-        <v/>
+        <v>1.952</v>
       </c>
       <c r="Q176" t="str">
         <v>1.80</v>
@@ -13469,7 +13469,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F177" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B00Qjy?ck=minisite</v>
       </c>
       <c r="G177" t="str">
         <v/>
@@ -13499,7 +13499,7 @@
         <v/>
       </c>
       <c r="P177" t="str">
-        <v/>
+        <v>0.146</v>
       </c>
       <c r="Q177" t="str">
         <v>0.12</v>
@@ -13543,7 +13543,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F178" t="str">
-        <v/>
+        <v>Hoefer</v>
       </c>
       <c r="G178" t="str">
         <v/>
@@ -13573,7 +13573,7 @@
         <v/>
       </c>
       <c r="P178" t="str">
-        <v/>
+        <v>11.217</v>
       </c>
       <c r="Q178" t="str">
         <v>10.47</v>
@@ -13617,7 +13617,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F179" t="str">
-        <v/>
+        <v>Tran Thi Ngot</v>
       </c>
       <c r="G179" t="str">
         <v/>
@@ -13647,7 +13647,7 @@
         <v/>
       </c>
       <c r="P179" t="str">
-        <v/>
+        <v>3.667</v>
       </c>
       <c r="Q179" t="str">
         <v>3.11</v>
@@ -13691,7 +13691,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F180" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9oSxz?ck=minisite</v>
       </c>
       <c r="G180" t="str">
         <v/>
@@ -13721,7 +13721,7 @@
         <v/>
       </c>
       <c r="P180" t="str">
-        <v/>
+        <v>4.444</v>
       </c>
       <c r="Q180" t="str">
         <v>3.78</v>
@@ -13765,7 +13765,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F181" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9rNK0?ck=minisite</v>
       </c>
       <c r="G181" t="str">
         <v/>
@@ -13795,7 +13795,7 @@
         <v/>
       </c>
       <c r="P181" t="str">
-        <v/>
+        <v>4.215</v>
       </c>
       <c r="Q181" t="str">
         <v>3.61</v>
@@ -13839,7 +13839,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F182" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=721867709022</v>
       </c>
       <c r="G182" t="str">
         <v/>
@@ -13869,7 +13869,7 @@
         <v/>
       </c>
       <c r="P182" t="str">
-        <v/>
+        <v>0.61</v>
       </c>
       <c r="Q182" t="str">
         <v>0.53</v>
@@ -13913,7 +13913,7 @@
         <v>Design</v>
       </c>
       <c r="F183" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B00QcV?ck=minisite</v>
       </c>
       <c r="G183" t="str">
         <v/>
@@ -13943,7 +13943,7 @@
         <v/>
       </c>
       <c r="P183" t="str">
-        <v/>
+        <v>0.444</v>
       </c>
       <c r="Q183" t="str">
         <v>0.38</v>
@@ -13987,7 +13987,7 @@
         <v>Design</v>
       </c>
       <c r="F184" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwnOmP?ck=minisite</v>
       </c>
       <c r="G184" t="str">
         <v/>
@@ -14017,7 +14017,7 @@
         <v/>
       </c>
       <c r="P184" t="str">
-        <v/>
+        <v>1.746</v>
       </c>
       <c r="Q184" t="str">
         <v>1.63</v>
@@ -14061,7 +14061,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F185" t="str">
-        <v/>
+        <v>Aosmei Senia W</v>
       </c>
       <c r="G185" t="str">
         <v/>
@@ -14091,7 +14091,7 @@
         <v/>
       </c>
       <c r="P185" t="str">
-        <v/>
+        <v>1.177</v>
       </c>
       <c r="Q185" t="str">
         <v>1.10</v>
@@ -14135,7 +14135,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F186" t="str">
-        <v/>
+        <v>Mẹ Marek</v>
       </c>
       <c r="G186" t="str">
         <v/>
@@ -14165,7 +14165,7 @@
         <v/>
       </c>
       <c r="P186" t="str">
-        <v/>
+        <v>1.07</v>
       </c>
       <c r="Q186" t="str">
         <v>1.00</v>
@@ -14209,7 +14209,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F187" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G187" t="str">
         <v/>
@@ -14239,7 +14239,7 @@
         <v/>
       </c>
       <c r="P187" t="str">
-        <v/>
+        <v>3.223</v>
       </c>
       <c r="Q187" t="str">
         <v>3.01</v>
@@ -14283,7 +14283,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F188" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G188" t="str">
         <v/>
@@ -14313,7 +14313,7 @@
         <v/>
       </c>
       <c r="P188" t="str">
-        <v/>
+        <v>2.754</v>
       </c>
       <c r="Q188" t="str">
         <v>2.34</v>
@@ -14357,7 +14357,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F189" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G189" t="str">
         <v/>
@@ -14387,7 +14387,7 @@
         <v/>
       </c>
       <c r="P189" t="str">
-        <v/>
+        <v>2.536</v>
       </c>
       <c r="Q189" t="str">
         <v>2.15</v>
@@ -14431,7 +14431,7 @@
         <v>Bút</v>
       </c>
       <c r="F190" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9aT5I?ck=minisite</v>
       </c>
       <c r="G190" t="str">
         <v/>
@@ -14461,7 +14461,7 @@
         <v/>
       </c>
       <c r="P190" t="str">
-        <v/>
+        <v>23.324</v>
       </c>
       <c r="Q190" t="str">
         <v>20.09</v>
@@ -14505,7 +14505,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F191" t="str">
-        <v/>
+        <v>kevin vo viber +16145796612</v>
       </c>
       <c r="G191" t="str">
         <v/>
@@ -14535,7 +14535,7 @@
         <v/>
       </c>
       <c r="P191" t="str">
-        <v/>
+        <v>9.6833</v>
       </c>
       <c r="Q191" t="str">
         <v>9.03</v>
@@ -14579,7 +14579,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F192" t="str">
-        <v/>
+        <v>loboter</v>
       </c>
       <c r="G192" t="str">
         <v/>
@@ -14609,7 +14609,7 @@
         <v/>
       </c>
       <c r="P192" t="str">
-        <v/>
+        <v>45.968</v>
       </c>
       <c r="Q192" t="str">
         <v>42.84</v>
@@ -14653,7 +14653,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F193" t="str">
-        <v/>
+        <v>loboter</v>
       </c>
       <c r="G193" t="str">
         <v/>
@@ -14683,7 +14683,7 @@
         <v/>
       </c>
       <c r="P193" t="str">
-        <v/>
+        <v>2.419</v>
       </c>
       <c r="Q193" t="str">
         <v>2.25</v>
@@ -14727,7 +14727,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F194" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awrmxn?ck=minisite</v>
       </c>
       <c r="G194" t="str">
         <v/>
@@ -14757,7 +14757,7 @@
         <v/>
       </c>
       <c r="P194" t="str">
-        <v/>
+        <v>33.872</v>
       </c>
       <c r="Q194" t="str">
         <v>31.57</v>
@@ -14801,7 +14801,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F195" t="str">
-        <v/>
+        <v>DV GOLDEN NAILS</v>
       </c>
       <c r="G195" t="str">
         <v/>
@@ -14831,7 +14831,7 @@
         <v/>
       </c>
       <c r="P195" t="str">
-        <v/>
+        <v>2.7824385</v>
       </c>
       <c r="Q195" t="str">
         <v>2.36</v>
@@ -14875,7 +14875,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F196" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwrnZT?ck=minisite</v>
       </c>
       <c r="G196" t="str">
         <v/>
@@ -14905,7 +14905,7 @@
         <v/>
       </c>
       <c r="P196" t="str">
-        <v/>
+        <v>7.258</v>
       </c>
       <c r="Q196" t="str">
         <v>6.76</v>
@@ -14949,7 +14949,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F197" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AwrnZT?ck=minisite</v>
       </c>
       <c r="G197" t="str">
         <v/>
@@ -14979,7 +14979,7 @@
         <v/>
       </c>
       <c r="P197" t="str">
-        <v/>
+        <v>2.419</v>
       </c>
       <c r="Q197" t="str">
         <v>2.25</v>
@@ -15023,7 +15023,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F198" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awrnhq?ck=minisite</v>
       </c>
       <c r="G198" t="str">
         <v/>
@@ -15053,7 +15053,7 @@
         <v/>
       </c>
       <c r="P198" t="str">
-        <v/>
+        <v>2.359</v>
       </c>
       <c r="Q198" t="str">
         <v>2.20</v>
@@ -15097,7 +15097,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F199" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro1X?ck=minisite</v>
       </c>
       <c r="G199" t="str">
         <v/>
@@ -15127,7 +15127,7 @@
         <v/>
       </c>
       <c r="P199" t="str">
-        <v/>
+        <v>0.786</v>
       </c>
       <c r="Q199" t="str">
         <v>0.73</v>
@@ -15171,7 +15171,7 @@
         <v>Design</v>
       </c>
       <c r="F200" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro1X?ck=minisite</v>
       </c>
       <c r="G200" t="str">
         <v/>
@@ -15201,7 +15201,7 @@
         <v/>
       </c>
       <c r="P200" t="str">
-        <v/>
+        <v>0.544</v>
       </c>
       <c r="Q200" t="str">
         <v>0.51</v>
@@ -15245,7 +15245,7 @@
         <v>Design</v>
       </c>
       <c r="F201" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro1X?ck=minisite</v>
       </c>
       <c r="G201" t="str">
         <v/>
@@ -15275,7 +15275,7 @@
         <v/>
       </c>
       <c r="P201" t="str">
-        <v/>
+        <v>0.605</v>
       </c>
       <c r="Q201" t="str">
         <v>0.56</v>
@@ -15319,7 +15319,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F202" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro1X?ck=minisite</v>
       </c>
       <c r="G202" t="str">
         <v/>
@@ -15349,7 +15349,7 @@
         <v/>
       </c>
       <c r="P202" t="str">
-        <v/>
+        <v>1.512</v>
       </c>
       <c r="Q202" t="str">
         <v>1.41</v>
@@ -15393,7 +15393,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F203" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro1X?ck=minisite</v>
       </c>
       <c r="G203" t="str">
         <v/>
@@ -15423,7 +15423,7 @@
         <v/>
       </c>
       <c r="P203" t="str">
-        <v/>
+        <v>0.484</v>
       </c>
       <c r="Q203" t="str">
         <v>0.45</v>
@@ -15467,7 +15467,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F204" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro82?ck=minisite</v>
       </c>
       <c r="G204" t="str">
         <v/>
@@ -15497,7 +15497,7 @@
         <v/>
       </c>
       <c r="P204" t="str">
-        <v/>
+        <v>3.387</v>
       </c>
       <c r="Q204" t="str">
         <v>3.16</v>
@@ -15541,7 +15541,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F205" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro82?ck=minisite</v>
       </c>
       <c r="G205" t="str">
         <v/>
@@ -15571,7 +15571,7 @@
         <v/>
       </c>
       <c r="P205" t="str">
-        <v/>
+        <v>4.113</v>
       </c>
       <c r="Q205" t="str">
         <v>3.83</v>
@@ -15615,7 +15615,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F206" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro82?ck=minisite</v>
       </c>
       <c r="G206" t="str">
         <v/>
@@ -15645,7 +15645,7 @@
         <v/>
       </c>
       <c r="P206" t="str">
-        <v/>
+        <v>5.081</v>
       </c>
       <c r="Q206" t="str">
         <v>4.74</v>
@@ -15689,7 +15689,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F207" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awro82?ck=minisite</v>
       </c>
       <c r="G207" t="str">
         <v/>
@@ -15719,7 +15719,7 @@
         <v/>
       </c>
       <c r="P207" t="str">
-        <v/>
+        <v>14.516</v>
       </c>
       <c r="Q207" t="str">
         <v>13.53</v>
@@ -15763,7 +15763,7 @@
         <v>Dũa</v>
       </c>
       <c r="F208" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvg9I?ck=minisite</v>
       </c>
       <c r="G208" t="str">
         <v/>
@@ -15793,7 +15793,7 @@
         <v/>
       </c>
       <c r="P208" t="str">
-        <v/>
+        <v>5.18</v>
       </c>
       <c r="Q208" t="str">
         <v>4.79</v>
@@ -15837,7 +15837,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F209" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvgmf?ck=minisite</v>
       </c>
       <c r="G209" t="str">
         <v/>
@@ -15867,7 +15867,7 @@
         <v/>
       </c>
       <c r="P209" t="str">
-        <v/>
+        <v>28.18</v>
       </c>
       <c r="Q209" t="str">
         <v>26.06</v>
@@ -15911,7 +15911,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F210" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvged?ck=minisite</v>
       </c>
       <c r="G210" t="str">
         <v/>
@@ -15941,7 +15941,7 @@
         <v/>
       </c>
       <c r="P210" t="str">
-        <v/>
+        <v>39.18</v>
       </c>
       <c r="Q210" t="str">
         <v>36.23</v>
@@ -15985,7 +15985,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F211" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvged?ck=minisite</v>
       </c>
       <c r="G211" t="str">
         <v/>
@@ -16015,7 +16015,7 @@
         <v/>
       </c>
       <c r="P211" t="str">
-        <v/>
+        <v>23.13</v>
       </c>
       <c r="Q211" t="str">
         <v>21.39</v>
@@ -16059,7 +16059,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F212" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvged?ck=minisite</v>
       </c>
       <c r="G212" t="str">
         <v/>
@@ -16089,7 +16089,7 @@
         <v/>
       </c>
       <c r="P212" t="str">
-        <v/>
+        <v>80.18</v>
       </c>
       <c r="Q212" t="str">
         <v>74.14</v>
@@ -16133,7 +16133,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F213" t="str">
-        <v/>
+        <v>Shanghai Chiyan Abrasives Co.</v>
       </c>
       <c r="G213" t="str">
         <v/>
@@ -16163,7 +16163,7 @@
         <v/>
       </c>
       <c r="P213" t="str">
-        <v/>
+        <v>5.709</v>
       </c>
       <c r="Q213" t="str">
         <v>4.92</v>
@@ -16207,7 +16207,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F214" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G214" t="str">
         <v/>
@@ -16237,7 +16237,7 @@
         <v/>
       </c>
       <c r="P214" t="str">
-        <v/>
+        <v>2.41</v>
       </c>
       <c r="Q214" t="str">
         <v>2.18</v>
@@ -16281,7 +16281,7 @@
         <v>Bút</v>
       </c>
       <c r="F215" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxH2nc?ck=minisite</v>
       </c>
       <c r="G215" t="str">
         <v/>
@@ -16311,7 +16311,7 @@
         <v/>
       </c>
       <c r="P215" t="str">
-        <v/>
+        <v>19.949</v>
       </c>
       <c r="Q215" t="str">
         <v>18.07</v>
@@ -16355,7 +16355,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F216" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxH36C?ck=minisite</v>
       </c>
       <c r="G216" t="str">
         <v/>
@@ -16385,7 +16385,7 @@
         <v/>
       </c>
       <c r="P216" t="str">
-        <v/>
+        <v>22.278</v>
       </c>
       <c r="Q216" t="str">
         <v>20.18</v>
@@ -16429,7 +16429,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F217" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxH37i?ck=minisite</v>
       </c>
       <c r="G217" t="str">
         <v/>
@@ -16459,7 +16459,7 @@
         <v/>
       </c>
       <c r="P217" t="str">
-        <v/>
+        <v>1.013</v>
       </c>
       <c r="Q217" t="str">
         <v>0.92</v>
@@ -16503,7 +16503,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F218" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G218" t="str">
         <v/>
@@ -16533,7 +16533,7 @@
         <v/>
       </c>
       <c r="P218" t="str">
-        <v/>
+        <v>2.9</v>
       </c>
       <c r="Q218" t="str">
         <v>2.61</v>
@@ -16577,7 +16577,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F219" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G219" t="str">
         <v/>
@@ -16607,7 +16607,7 @@
         <v/>
       </c>
       <c r="P219" t="str">
-        <v/>
+        <v>2.9</v>
       </c>
       <c r="Q219" t="str">
         <v>2.61</v>
@@ -16651,7 +16651,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F220" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9dy9j?ck=minisite</v>
       </c>
       <c r="G220" t="str">
         <v/>
@@ -16681,7 +16681,7 @@
         <v/>
       </c>
       <c r="P220" t="str">
-        <v/>
+        <v>39.876</v>
       </c>
       <c r="Q220" t="str">
         <v>34.04</v>
@@ -16725,7 +16725,7 @@
         <v>Design</v>
       </c>
       <c r="F221" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxKrfz?ck=minisite</v>
       </c>
       <c r="G221" t="str">
         <v/>
@@ -16755,7 +16755,7 @@
         <v/>
       </c>
       <c r="P221" t="str">
-        <v/>
+        <v>4.13</v>
       </c>
       <c r="Q221" t="str">
         <v>3.71</v>
@@ -16799,7 +16799,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F222" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=533041350611</v>
       </c>
       <c r="G222" t="str">
         <v/>
@@ -16829,7 +16829,7 @@
         <v/>
       </c>
       <c r="P222" t="str">
-        <v/>
+        <v>1.202</v>
       </c>
       <c r="Q222" t="str">
         <v>1.08</v>
@@ -16873,7 +16873,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F223" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxMaiO?ck=minisite</v>
       </c>
       <c r="G223" t="str">
         <v/>
@@ -16903,7 +16903,7 @@
         <v/>
       </c>
       <c r="P223" t="str">
-        <v/>
+        <v>23.563</v>
       </c>
       <c r="Q223" t="str">
         <v>21.20</v>
@@ -16947,7 +16947,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F224" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxMaWa?ck=minisite</v>
       </c>
       <c r="G224" t="str">
         <v/>
@@ -16977,7 +16977,7 @@
         <v/>
       </c>
       <c r="P224" t="str">
-        <v/>
+        <v>3.273</v>
       </c>
       <c r="Q224" t="str">
         <v>2.94</v>
@@ -17021,7 +17021,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F225" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G225" t="str">
         <v/>
@@ -17051,7 +17051,7 @@
         <v/>
       </c>
       <c r="P225" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q225" t="str">
         <v>2.57</v>
@@ -17095,7 +17095,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F226" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G226" t="str">
         <v/>
@@ -17125,7 +17125,7 @@
         <v/>
       </c>
       <c r="P226" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q226" t="str">
         <v>2.57</v>
@@ -17169,7 +17169,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F227" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G227" t="str">
         <v/>
@@ -17199,7 +17199,7 @@
         <v/>
       </c>
       <c r="P227" t="str">
-        <v/>
+        <v>0.603</v>
       </c>
       <c r="Q227" t="str">
         <v>0.54</v>
@@ -17243,7 +17243,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F228" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G228" t="str">
         <v/>
@@ -17273,7 +17273,7 @@
         <v/>
       </c>
       <c r="P228" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q228" t="str">
         <v>2.57</v>
@@ -17317,7 +17317,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F229" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G229" t="str">
         <v/>
@@ -17347,7 +17347,7 @@
         <v/>
       </c>
       <c r="P229" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q229" t="str">
         <v>2.57</v>
@@ -17391,7 +17391,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F230" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G230" t="str">
         <v/>
@@ -17421,7 +17421,7 @@
         <v/>
       </c>
       <c r="P230" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q230" t="str">
         <v>2.57</v>
@@ -17465,7 +17465,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F231" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G231" t="str">
         <v/>
@@ -17495,7 +17495,7 @@
         <v/>
       </c>
       <c r="P231" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q231" t="str">
         <v>2.57</v>
@@ -17539,7 +17539,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F232" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G232" t="str">
         <v/>
@@ -17569,7 +17569,7 @@
         <v/>
       </c>
       <c r="P232" t="str">
-        <v/>
+        <v>3.203</v>
       </c>
       <c r="Q232" t="str">
         <v>2.89</v>
@@ -17613,7 +17613,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F233" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G233" t="str">
         <v/>
@@ -17643,7 +17643,7 @@
         <v/>
       </c>
       <c r="P233" t="str">
-        <v/>
+        <v>2.853</v>
       </c>
       <c r="Q233" t="str">
         <v>2.57</v>
@@ -17687,7 +17687,7 @@
         <v>Bột</v>
       </c>
       <c r="F234" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSAfy?ck=minisite</v>
       </c>
       <c r="G234" t="str">
         <v/>
@@ -17717,7 +17717,7 @@
         <v/>
       </c>
       <c r="P234" t="str">
-        <v/>
+        <v>4.699</v>
       </c>
       <c r="Q234" t="str">
         <v>4.23</v>
@@ -17761,7 +17761,7 @@
         <v>Bột</v>
       </c>
       <c r="F235" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSAfy?ck=minisite</v>
       </c>
       <c r="G235" t="str">
         <v/>
@@ -17791,7 +17791,7 @@
         <v/>
       </c>
       <c r="P235" t="str">
-        <v/>
+        <v>21.929</v>
       </c>
       <c r="Q235" t="str">
         <v>19.75</v>
@@ -17835,7 +17835,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F236" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G236" t="str">
         <v/>
@@ -17865,7 +17865,7 @@
         <v/>
       </c>
       <c r="P236" t="str">
-        <v/>
+        <v>9.607</v>
       </c>
       <c r="Q236" t="str">
         <v>8.34</v>
@@ -17909,7 +17909,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F237" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G237" t="str">
         <v/>
@@ -17939,7 +17939,7 @@
         <v/>
       </c>
       <c r="P237" t="str">
-        <v/>
+        <v>185.711</v>
       </c>
       <c r="Q237" t="str">
         <v>162.50</v>
@@ -17983,7 +17983,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F238" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSBkn?ck=minisite</v>
       </c>
       <c r="G238" t="str">
         <v/>
@@ -18013,7 +18013,7 @@
         <v/>
       </c>
       <c r="P238" t="str">
-        <v/>
+        <v>5.369</v>
       </c>
       <c r="Q238" t="str">
         <v>4.84</v>
@@ -18057,7 +18057,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F239" t="str">
-        <v/>
+        <v>Beshyne</v>
       </c>
       <c r="G239" t="str">
         <v/>
@@ -18087,7 +18087,7 @@
         <v/>
       </c>
       <c r="P239" t="str">
-        <v/>
+        <v>2.311</v>
       </c>
       <c r="Q239" t="str">
         <v>1.99</v>
@@ -18131,7 +18131,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F240" t="str">
-        <v/>
+        <v>Beshyne</v>
       </c>
       <c r="G240" t="str">
         <v/>
@@ -18161,7 +18161,7 @@
         <v/>
       </c>
       <c r="P240" t="str">
-        <v/>
+        <v>2.311</v>
       </c>
       <c r="Q240" t="str">
         <v>1.99</v>
@@ -18205,7 +18205,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F241" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSCuw?ck=minisite</v>
       </c>
       <c r="G241" t="str">
         <v/>
@@ -18235,7 +18235,7 @@
         <v/>
       </c>
       <c r="P241" t="str">
-        <v/>
+        <v>62.287</v>
       </c>
       <c r="Q241" t="str">
         <v>56.10</v>
@@ -18279,7 +18279,7 @@
         <v>Design</v>
       </c>
       <c r="F242" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSDjN?ck=minisite</v>
       </c>
       <c r="G242" t="str">
         <v/>
@@ -18309,7 +18309,7 @@
         <v/>
       </c>
       <c r="P242" t="str">
-        <v/>
+        <v>1.822</v>
       </c>
       <c r="Q242" t="str">
         <v>1.64</v>
@@ -18353,7 +18353,7 @@
         <v>Design</v>
       </c>
       <c r="F243" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSDjN?ck=minisite</v>
       </c>
       <c r="G243" t="str">
         <v/>
@@ -18383,7 +18383,7 @@
         <v/>
       </c>
       <c r="P243" t="str">
-        <v/>
+        <v>1.822</v>
       </c>
       <c r="Q243" t="str">
         <v>1.64</v>
@@ -18427,7 +18427,7 @@
         <v>Design</v>
       </c>
       <c r="F244" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSDjN?ck=minisite</v>
       </c>
       <c r="G244" t="str">
         <v/>
@@ -18457,7 +18457,7 @@
         <v/>
       </c>
       <c r="P244" t="str">
-        <v/>
+        <v>1.481</v>
       </c>
       <c r="Q244" t="str">
         <v>1.33</v>
@@ -18501,7 +18501,7 @@
         <v>Design</v>
       </c>
       <c r="F245" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSDjN?ck=minisite</v>
       </c>
       <c r="G245" t="str">
         <v/>
@@ -18531,7 +18531,7 @@
         <v/>
       </c>
       <c r="P245" t="str">
-        <v/>
+        <v>10.753</v>
       </c>
       <c r="Q245" t="str">
         <v>9.68</v>
@@ -18575,7 +18575,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F246" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSE5a?ck=minisite</v>
       </c>
       <c r="G246" t="str">
         <v/>
@@ -18605,7 +18605,7 @@
         <v/>
       </c>
       <c r="P246" t="str">
-        <v/>
+        <v>0.294</v>
       </c>
       <c r="Q246" t="str">
         <v>0.26</v>
@@ -18649,7 +18649,7 @@
         <v>Design</v>
       </c>
       <c r="F247" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSE5a?ck=minisite</v>
       </c>
       <c r="G247" t="str">
         <v/>
@@ -18679,7 +18679,7 @@
         <v/>
       </c>
       <c r="P247" t="str">
-        <v/>
+        <v>0.94</v>
       </c>
       <c r="Q247" t="str">
         <v>0.85</v>
@@ -18723,7 +18723,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F248" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSE5a?ck=minisite</v>
       </c>
       <c r="G248" t="str">
         <v/>
@@ -18753,7 +18753,7 @@
         <v/>
       </c>
       <c r="P248" t="str">
-        <v/>
+        <v>0.588</v>
       </c>
       <c r="Q248" t="str">
         <v>0.53</v>
@@ -18797,7 +18797,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F249" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSE5a?ck=minisite</v>
       </c>
       <c r="G249" t="str">
         <v/>
@@ -18827,7 +18827,7 @@
         <v/>
       </c>
       <c r="P249" t="str">
-        <v/>
+        <v>2.35</v>
       </c>
       <c r="Q249" t="str">
         <v>2.12</v>
@@ -18871,7 +18871,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F250" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxSE5a?ck=minisite</v>
       </c>
       <c r="G250" t="str">
         <v/>
@@ -18901,7 +18901,7 @@
         <v/>
       </c>
       <c r="P250" t="str">
-        <v/>
+        <v>1.175</v>
       </c>
       <c r="Q250" t="str">
         <v>1.06</v>
@@ -18945,7 +18945,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F251" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=584139699012</v>
       </c>
       <c r="G251" t="str">
         <v/>
@@ -18975,7 +18975,7 @@
         <v/>
       </c>
       <c r="P251" t="str">
-        <v/>
+        <v>0.071</v>
       </c>
       <c r="Q251" t="str">
         <v>0.06</v>
@@ -19019,7 +19019,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F252" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0t6Y?ck=minisite</v>
       </c>
       <c r="G252" t="str">
         <v/>
@@ -19049,7 +19049,7 @@
         <v/>
       </c>
       <c r="P252" t="str">
-        <v/>
+        <v>0.909</v>
       </c>
       <c r="Q252" t="str">
         <v>0.79</v>
@@ -19093,7 +19093,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F253" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0t6Y?ck=minisite</v>
       </c>
       <c r="G253" t="str">
         <v/>
@@ -19123,7 +19123,7 @@
         <v/>
       </c>
       <c r="P253" t="str">
-        <v/>
+        <v>0.909</v>
       </c>
       <c r="Q253" t="str">
         <v>0.79</v>
@@ -19167,7 +19167,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F254" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=751479664257</v>
       </c>
       <c r="G254" t="str">
         <v/>
@@ -19197,7 +19197,7 @@
         <v/>
       </c>
       <c r="P254" t="str">
-        <v/>
+        <v>0.635</v>
       </c>
       <c r="Q254" t="str">
         <v>0.57</v>
@@ -19241,7 +19241,7 @@
         <v>Bút</v>
       </c>
       <c r="F255" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxgCQU?ck=minisite</v>
       </c>
       <c r="G255" t="str">
         <v/>
@@ -19271,7 +19271,7 @@
         <v/>
       </c>
       <c r="P255" t="str">
-        <v/>
+        <v>20.411</v>
       </c>
       <c r="Q255" t="str">
         <v>18.44</v>
@@ -19315,7 +19315,7 @@
         <v>Bút</v>
       </c>
       <c r="F256" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxgCQU?ck=minisite</v>
       </c>
       <c r="G256" t="str">
         <v/>
@@ -19345,7 +19345,7 @@
         <v/>
       </c>
       <c r="P256" t="str">
-        <v/>
+        <v>20.411</v>
       </c>
       <c r="Q256" t="str">
         <v>18.44</v>
@@ -19389,7 +19389,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F257" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxgCXn?ck=minisite</v>
       </c>
       <c r="G257" t="str">
         <v/>
@@ -19419,7 +19419,7 @@
         <v/>
       </c>
       <c r="P257" t="str">
-        <v/>
+        <v>72.527</v>
       </c>
       <c r="Q257" t="str">
         <v>65.51</v>
@@ -19463,7 +19463,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F258" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9bae6?ck=minisite</v>
       </c>
       <c r="G258" t="str">
         <v/>
@@ -19493,7 +19493,7 @@
         <v/>
       </c>
       <c r="P258" t="str">
-        <v/>
+        <v>1.352</v>
       </c>
       <c r="Q258" t="str">
         <v>1.15</v>
@@ -19537,7 +19537,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F259" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9bae6?ck=minisite</v>
       </c>
       <c r="G259" t="str">
         <v/>
@@ -19567,7 +19567,7 @@
         <v/>
       </c>
       <c r="P259" t="str">
-        <v/>
+        <v>0.749</v>
       </c>
       <c r="Q259" t="str">
         <v>0.64</v>
@@ -19611,7 +19611,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F260" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G260" t="str">
         <v/>
@@ -19641,7 +19641,7 @@
         <v/>
       </c>
       <c r="P260" t="str">
-        <v/>
+        <v>51.822</v>
       </c>
       <c r="Q260" t="str">
         <v>44.66</v>
@@ -19685,7 +19685,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F261" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G261" t="str">
         <v/>
@@ -19715,7 +19715,7 @@
         <v/>
       </c>
       <c r="P261" t="str">
-        <v/>
+        <v>51.822</v>
       </c>
       <c r="Q261" t="str">
         <v>44.66</v>
@@ -19759,7 +19759,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F262" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G262" t="str">
         <v/>
@@ -19789,7 +19789,7 @@
         <v/>
       </c>
       <c r="P262" t="str">
-        <v/>
+        <v>51.822</v>
       </c>
       <c r="Q262" t="str">
         <v>44.66</v>
@@ -19833,7 +19833,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F263" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G263" t="str">
         <v/>
@@ -19863,7 +19863,7 @@
         <v/>
       </c>
       <c r="P263" t="str">
-        <v/>
+        <v>51.822</v>
       </c>
       <c r="Q263" t="str">
         <v>44.66</v>
@@ -19907,7 +19907,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F264" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G264" t="str">
         <v/>
@@ -19937,7 +19937,7 @@
         <v/>
       </c>
       <c r="P264" t="str">
-        <v/>
+        <v>44.35</v>
       </c>
       <c r="Q264" t="str">
         <v>38.51</v>
@@ -19981,7 +19981,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F265" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxgDXM?ck=minisite</v>
       </c>
       <c r="G265" t="str">
         <v/>
@@ -20011,7 +20011,7 @@
         <v/>
       </c>
       <c r="P265" t="str">
-        <v/>
+        <v>0.65</v>
       </c>
       <c r="Q265" t="str">
         <v>0.59</v>
@@ -20055,7 +20055,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F266" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxgDXM?ck=minisite</v>
       </c>
       <c r="G266" t="str">
         <v/>
@@ -20085,7 +20085,7 @@
         <v/>
       </c>
       <c r="P266" t="str">
-        <v/>
+        <v>0.65</v>
       </c>
       <c r="Q266" t="str">
         <v>0.59</v>
@@ -20129,7 +20129,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F267" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G267" t="str">
         <v/>
@@ -20159,7 +20159,7 @@
         <v/>
       </c>
       <c r="P267" t="str">
-        <v/>
+        <v>2.828</v>
       </c>
       <c r="Q267" t="str">
         <v>2.60</v>
@@ -20203,7 +20203,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F268" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G268" t="str">
         <v/>
@@ -20233,7 +20233,7 @@
         <v/>
       </c>
       <c r="P268" t="str">
-        <v/>
+        <v>2.828</v>
       </c>
       <c r="Q268" t="str">
         <v>2.60</v>
@@ -20277,7 +20277,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F269" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G269" t="str">
         <v/>
@@ -20307,7 +20307,7 @@
         <v/>
       </c>
       <c r="P269" t="str">
-        <v/>
+        <v>2.828</v>
       </c>
       <c r="Q269" t="str">
         <v>2.60</v>
@@ -20351,7 +20351,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F270" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G270" t="str">
         <v/>
@@ -20381,7 +20381,7 @@
         <v/>
       </c>
       <c r="P270" t="str">
-        <v/>
+        <v>2.828</v>
       </c>
       <c r="Q270" t="str">
         <v>2.60</v>
@@ -20425,7 +20425,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F271" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G271" t="str">
         <v/>
@@ -20455,7 +20455,7 @@
         <v/>
       </c>
       <c r="P271" t="str">
-        <v/>
+        <v>2.828</v>
       </c>
       <c r="Q271" t="str">
         <v>2.60</v>
@@ -20499,7 +20499,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F272" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G272" t="str">
         <v/>
@@ -20529,7 +20529,7 @@
         <v/>
       </c>
       <c r="P272" t="str">
-        <v/>
+        <v>2.828</v>
       </c>
       <c r="Q272" t="str">
         <v>2.60</v>
@@ -20573,7 +20573,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F273" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxnU9h?ck=minisite</v>
       </c>
       <c r="G273" t="str">
         <v/>
@@ -20603,7 +20603,7 @@
         <v/>
       </c>
       <c r="P273" t="str">
-        <v/>
+        <v>1.972</v>
       </c>
       <c r="Q273" t="str">
         <v>1.81</v>
@@ -20647,7 +20647,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F274" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADY4F?ck=minisite</v>
       </c>
       <c r="G274" t="str">
         <v/>
@@ -20677,7 +20677,7 @@
         <v/>
       </c>
       <c r="P274" t="str">
-        <v/>
+        <v>1.838</v>
       </c>
       <c r="Q274" t="str">
         <v>1.58</v>
@@ -20721,7 +20721,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F275" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxnU9h?ck=minisite</v>
       </c>
       <c r="G275" t="str">
         <v/>
@@ -20751,7 +20751,7 @@
         <v/>
       </c>
       <c r="P275" t="str">
-        <v/>
+        <v>16.782</v>
       </c>
       <c r="Q275" t="str">
         <v>15.40</v>
@@ -20795,7 +20795,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F276" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Azbq2K?ck=minisite</v>
       </c>
       <c r="G276" t="str">
         <v/>
@@ -20825,7 +20825,7 @@
         <v/>
       </c>
       <c r="P276" t="str">
-        <v/>
+        <v>31.958</v>
       </c>
       <c r="Q276" t="str">
         <v>28.38</v>
@@ -20869,7 +20869,7 @@
         <v>Dũa</v>
       </c>
       <c r="F277" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Axpbp8?ck=minisite</v>
       </c>
       <c r="G277" t="str">
         <v/>
@@ -20899,7 +20899,7 @@
         <v/>
       </c>
       <c r="P277" t="str">
-        <v/>
+        <v>9.984</v>
       </c>
       <c r="Q277" t="str">
         <v>9.20</v>
@@ -20943,7 +20943,7 @@
         <v>Tips</v>
       </c>
       <c r="F278" t="str">
-        <v/>
+        <v>New York Supply Berlin +4915208576163</v>
       </c>
       <c r="G278" t="str">
         <v/>
@@ -20973,7 +20973,7 @@
         <v/>
       </c>
       <c r="P278" t="str">
-        <v/>
+        <v>0.404</v>
       </c>
       <c r="Q278" t="str">
         <v>0.35</v>
@@ -21017,7 +21017,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F279" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1JV3?ck=minisite</v>
       </c>
       <c r="G279" t="str">
         <v/>
@@ -21047,7 +21047,7 @@
         <v/>
       </c>
       <c r="P279" t="str">
-        <v/>
+        <v>16.678</v>
       </c>
       <c r="Q279" t="str">
         <v>14.48</v>
@@ -21091,7 +21091,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F280" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1JV3?ck=minisite</v>
       </c>
       <c r="G280" t="str">
         <v/>
@@ -21121,7 +21121,7 @@
         <v/>
       </c>
       <c r="P280" t="str">
-        <v/>
+        <v>16.678</v>
       </c>
       <c r="Q280" t="str">
         <v>14.48</v>
@@ -21165,7 +21165,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F281" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Axpbz6?ck=minisite</v>
       </c>
       <c r="G281" t="str">
         <v/>
@@ -21195,7 +21195,7 @@
         <v/>
       </c>
       <c r="P281" t="str">
-        <v/>
+        <v>9.928</v>
       </c>
       <c r="Q281" t="str">
         <v>9.15</v>
@@ -21239,7 +21239,7 @@
         <v>Design</v>
       </c>
       <c r="F282" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=639452861749</v>
       </c>
       <c r="G282" t="str">
         <v/>
@@ -21269,7 +21269,7 @@
         <v/>
       </c>
       <c r="P282" t="str">
-        <v/>
+        <v>8.642</v>
       </c>
       <c r="Q282" t="str">
         <v>7.97</v>
@@ -21313,7 +21313,7 @@
         <v>Design</v>
       </c>
       <c r="F283" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=639452861749</v>
       </c>
       <c r="G283" t="str">
         <v/>
@@ -21343,7 +21343,7 @@
         <v/>
       </c>
       <c r="P283" t="str">
-        <v/>
+        <v>7.683</v>
       </c>
       <c r="Q283" t="str">
         <v>7.08</v>
@@ -21387,7 +21387,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F284" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=639452861749</v>
       </c>
       <c r="G284" t="str">
         <v/>
@@ -21417,7 +21417,7 @@
         <v/>
       </c>
       <c r="P284" t="str">
-        <v/>
+        <v>8.958</v>
       </c>
       <c r="Q284" t="str">
         <v>8.26</v>
@@ -21461,7 +21461,7 @@
         <v>Design</v>
       </c>
       <c r="F285" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=675426068529</v>
       </c>
       <c r="G285" t="str">
         <v/>
@@ -21491,7 +21491,7 @@
         <v/>
       </c>
       <c r="P285" t="str">
-        <v/>
+        <v>11.203</v>
       </c>
       <c r="Q285" t="str">
         <v>10.33</v>
@@ -21535,7 +21535,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F286" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G286" t="str">
         <v/>
@@ -21565,7 +21565,7 @@
         <v/>
       </c>
       <c r="P286" t="str">
-        <v/>
+        <v>6.478</v>
       </c>
       <c r="Q286" t="str">
         <v>5.58</v>
@@ -21609,7 +21609,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F287" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G287" t="str">
         <v/>
@@ -21639,7 +21639,7 @@
         <v/>
       </c>
       <c r="P287" t="str">
-        <v/>
+        <v>18.012</v>
       </c>
       <c r="Q287" t="str">
         <v>15.64</v>
@@ -21683,7 +21683,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F288" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G288" t="str">
         <v/>
@@ -21713,7 +21713,7 @@
         <v/>
       </c>
       <c r="P288" t="str">
-        <v/>
+        <v>42.887</v>
       </c>
       <c r="Q288" t="str">
         <v>37.23</v>
@@ -21757,7 +21757,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F289" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B03xgx?ck=minisite</v>
       </c>
       <c r="G289" t="str">
         <v/>
@@ -21787,7 +21787,7 @@
         <v/>
       </c>
       <c r="P289" t="str">
-        <v/>
+        <v>1.89</v>
       </c>
       <c r="Q289" t="str">
         <v>1.61</v>
@@ -21831,7 +21831,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F290" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Axudal?ck=minisite</v>
       </c>
       <c r="G290" t="str">
         <v/>
@@ -21861,7 +21861,7 @@
         <v/>
       </c>
       <c r="P290" t="str">
-        <v/>
+        <v>3.159</v>
       </c>
       <c r="Q290" t="str">
         <v>2.93</v>
@@ -21905,7 +21905,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F291" t="str">
-        <v/>
+        <v>Tran Thi Ngot</v>
       </c>
       <c r="G291" t="str">
         <v/>
@@ -21935,7 +21935,7 @@
         <v/>
       </c>
       <c r="P291" t="str">
-        <v/>
+        <v>6.029</v>
       </c>
       <c r="Q291" t="str">
         <v>5.11</v>
@@ -21979,7 +21979,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F292" t="str">
-        <v/>
+        <v>Trần Thị Ngọt</v>
       </c>
       <c r="G292" t="str">
         <v/>
@@ -22009,7 +22009,7 @@
         <v/>
       </c>
       <c r="P292" t="str">
-        <v/>
+        <v>0.774</v>
       </c>
       <c r="Q292" t="str">
         <v>0.72</v>
@@ -22053,7 +22053,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F293" t="str">
-        <v/>
+        <v>Hoefer chemie</v>
       </c>
       <c r="G293" t="str">
         <v/>
@@ -22083,7 +22083,7 @@
         <v/>
       </c>
       <c r="P293" t="str">
-        <v/>
+        <v>10.572</v>
       </c>
       <c r="Q293" t="str">
         <v>9.39</v>
@@ -22127,7 +22127,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F294" t="str">
-        <v/>
+        <v>Hoefer</v>
       </c>
       <c r="G294" t="str">
         <v/>
@@ -22157,7 +22157,7 @@
         <v/>
       </c>
       <c r="P294" t="str">
-        <v/>
+        <v>10.665</v>
       </c>
       <c r="Q294" t="str">
         <v>9.19</v>
@@ -22201,7 +22201,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F295" t="str">
-        <v/>
+        <v>Hoefer</v>
       </c>
       <c r="G295" t="str">
         <v/>
@@ -22231,7 +22231,7 @@
         <v/>
       </c>
       <c r="P295" t="str">
-        <v/>
+        <v>2.79</v>
       </c>
       <c r="Q295" t="str">
         <v>2.64</v>
@@ -22275,7 +22275,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F296" t="str">
-        <v/>
+        <v>USN</v>
       </c>
       <c r="G296" t="str">
         <v/>
@@ -22305,7 +22305,7 @@
         <v/>
       </c>
       <c r="P296" t="str">
-        <v/>
+        <v>0.174</v>
       </c>
       <c r="Q296" t="str">
         <v>0.17</v>
@@ -22349,7 +22349,7 @@
         <v>Design</v>
       </c>
       <c r="F297" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9oSxz?ck=minisite</v>
       </c>
       <c r="G297" t="str">
         <v/>
@@ -22379,7 +22379,7 @@
         <v/>
       </c>
       <c r="P297" t="str">
-        <v/>
+        <v>4.444</v>
       </c>
       <c r="Q297" t="str">
         <v>3.78</v>
@@ -22423,7 +22423,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F298" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9hA6o?ck=minisite</v>
       </c>
       <c r="G298" t="str">
         <v/>
@@ -22453,7 +22453,7 @@
         <v/>
       </c>
       <c r="P298" t="str">
-        <v/>
+        <v>1.836</v>
       </c>
       <c r="Q298" t="str">
         <v>1.57</v>
@@ -22497,7 +22497,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F299" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xvCGLbC?ck=minisite</v>
       </c>
       <c r="G299" t="str">
         <v/>
@@ -22527,7 +22527,7 @@
         <v/>
       </c>
       <c r="P299" t="str">
-        <v/>
+        <v>37.121</v>
       </c>
       <c r="Q299" t="str">
         <v>35.15</v>
@@ -22571,7 +22571,7 @@
         <v>Design</v>
       </c>
       <c r="F300" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=542506424161</v>
       </c>
       <c r="G300" t="str">
         <v/>
@@ -22601,7 +22601,7 @@
         <v/>
       </c>
       <c r="P300" t="str">
-        <v/>
+        <v>4.326</v>
       </c>
       <c r="Q300" t="str">
         <v>4.10</v>
@@ -22645,7 +22645,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F301" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G301" t="str">
         <v/>
@@ -22675,7 +22675,7 @@
         <v/>
       </c>
       <c r="P301" t="str">
-        <v/>
+        <v>51.822</v>
       </c>
       <c r="Q301" t="str">
         <v>44.66</v>
@@ -22719,7 +22719,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F302" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G302" t="str">
         <v/>
@@ -22749,7 +22749,7 @@
         <v/>
       </c>
       <c r="P302" t="str">
-        <v/>
+        <v>51.822</v>
       </c>
       <c r="Q302" t="str">
         <v>44.66</v>
@@ -22793,7 +22793,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F303" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G303" t="str">
         <v/>
@@ -22823,7 +22823,7 @@
         <v/>
       </c>
       <c r="P303" t="str">
-        <v/>
+        <v>2.75</v>
       </c>
       <c r="Q303" t="str">
         <v>2.62</v>
@@ -22867,7 +22867,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F304" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G304" t="str">
         <v/>
@@ -22897,7 +22897,7 @@
         <v/>
       </c>
       <c r="P304" t="str">
-        <v/>
+        <v>2.75</v>
       </c>
       <c r="Q304" t="str">
         <v>2.62</v>
@@ -22941,7 +22941,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F305" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G305" t="str">
         <v/>
@@ -22971,7 +22971,7 @@
         <v/>
       </c>
       <c r="P305" t="str">
-        <v/>
+        <v>3.1</v>
       </c>
       <c r="Q305" t="str">
         <v>2.95</v>
@@ -23015,7 +23015,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F306" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G306" t="str">
         <v/>
@@ -23045,7 +23045,7 @@
         <v/>
       </c>
       <c r="P306" t="str">
-        <v/>
+        <v>3.9</v>
       </c>
       <c r="Q306" t="str">
         <v>3.71</v>
@@ -23089,7 +23089,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F307" t="str">
-        <v/>
+        <v>Aosmei</v>
       </c>
       <c r="G307" t="str">
         <v/>
@@ -23119,7 +23119,7 @@
         <v/>
       </c>
       <c r="P307" t="str">
-        <v/>
+        <v>24.512</v>
       </c>
       <c r="Q307" t="str">
         <v>23.33</v>
@@ -23163,7 +23163,7 @@
         <v>Design</v>
       </c>
       <c r="F308" t="str">
-        <v/>
+        <v>https://x.alibaba.com/x8DKnGD?ck=minisite</v>
       </c>
       <c r="G308" t="str">
         <v/>
@@ -23193,7 +23193,7 @@
         <v/>
       </c>
       <c r="P308" t="str">
-        <v/>
+        <v>1.78</v>
       </c>
       <c r="Q308" t="str">
         <v>1.69</v>
@@ -23237,7 +23237,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F309" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xOf8zii?ck=minisite</v>
       </c>
       <c r="G309" t="str">
         <v/>
@@ -23267,7 +23267,7 @@
         <v/>
       </c>
       <c r="P309" t="str">
-        <v/>
+        <v>26.235</v>
       </c>
       <c r="Q309" t="str">
         <v>24.96</v>
@@ -23311,7 +23311,7 @@
         <v>Dũa</v>
       </c>
       <c r="F310" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzzqcX?ck=minisite</v>
       </c>
       <c r="G310" t="str">
         <v/>
@@ -23341,7 +23341,7 @@
         <v/>
       </c>
       <c r="P310" t="str">
-        <v/>
+        <v>4.107</v>
       </c>
       <c r="Q310" t="str">
         <v>3.48</v>
@@ -23385,7 +23385,7 @@
         <v>Dũa</v>
       </c>
       <c r="F311" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xi8jSDC?ck=minisite</v>
       </c>
       <c r="G311" t="str">
         <v/>
@@ -23415,7 +23415,7 @@
         <v/>
       </c>
       <c r="P311" t="str">
-        <v/>
+        <v>4.517</v>
       </c>
       <c r="Q311" t="str">
         <v>4.30</v>
@@ -23459,7 +23459,7 @@
         <v>Bột</v>
       </c>
       <c r="F312" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G312" t="str">
         <v/>
@@ -23489,7 +23489,7 @@
         <v/>
       </c>
       <c r="P312" t="str">
-        <v/>
+        <v>22.883</v>
       </c>
       <c r="Q312" t="str">
         <v>19.73</v>
@@ -23533,7 +23533,7 @@
         <v>Bột</v>
       </c>
       <c r="F313" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G313" t="str">
         <v/>
@@ -23563,7 +23563,7 @@
         <v/>
       </c>
       <c r="P313" t="str">
-        <v/>
+        <v>23.397</v>
       </c>
       <c r="Q313" t="str">
         <v>20.17</v>
@@ -23607,7 +23607,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F314" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9rNK0?ck=minisite</v>
       </c>
       <c r="G314" t="str">
         <v/>
@@ -23637,7 +23637,7 @@
         <v/>
       </c>
       <c r="P314" t="str">
-        <v/>
+        <v>17.615</v>
       </c>
       <c r="Q314" t="str">
         <v>15.10</v>
@@ -23681,7 +23681,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F315" t="str">
-        <v/>
+        <v>Eko-Higiena</v>
       </c>
       <c r="G315" t="str">
         <v/>
@@ -23711,7 +23711,7 @@
         <v/>
       </c>
       <c r="P315" t="str">
-        <v/>
+        <v>13.269</v>
       </c>
       <c r="Q315" t="str">
         <v>11.52</v>
@@ -23755,7 +23755,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F316" t="str">
-        <v/>
+        <v>chen13025122071</v>
       </c>
       <c r="G316" t="str">
         <v/>
@@ -23785,7 +23785,7 @@
         <v/>
       </c>
       <c r="P316" t="str">
-        <v/>
+        <v>2.767</v>
       </c>
       <c r="Q316" t="str">
         <v>2.66</v>
@@ -23829,7 +23829,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F317" t="str">
-        <v/>
+        <v>chen13025122071</v>
       </c>
       <c r="G317" t="str">
         <v/>
@@ -23859,7 +23859,7 @@
         <v/>
       </c>
       <c r="P317" t="str">
-        <v/>
+        <v>2.767</v>
       </c>
       <c r="Q317" t="str">
         <v>2.66</v>
@@ -23903,7 +23903,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F318" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xx4zzAP?ck=minisite</v>
       </c>
       <c r="G318" t="str">
         <v/>
@@ -23933,7 +23933,7 @@
         <v/>
       </c>
       <c r="P318" t="str">
-        <v/>
+        <v>2.737</v>
       </c>
       <c r="Q318" t="str">
         <v>2.63</v>
@@ -23977,7 +23977,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F319" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=676040227042</v>
       </c>
       <c r="G319" t="str">
         <v/>
@@ -24007,7 +24007,7 @@
         <v/>
       </c>
       <c r="P319" t="str">
-        <v/>
+        <v>1.24</v>
       </c>
       <c r="Q319" t="str">
         <v>1.19</v>
@@ -24051,7 +24051,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F320" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=553176613855</v>
       </c>
       <c r="G320" t="str">
         <v/>
@@ -24081,7 +24081,7 @@
         <v/>
       </c>
       <c r="P320" t="str">
-        <v/>
+        <v>0.454</v>
       </c>
       <c r="Q320" t="str">
         <v>0.39</v>
@@ -24125,7 +24125,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F321" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=630943673833</v>
       </c>
       <c r="G321" t="str">
         <v/>
@@ -24155,7 +24155,7 @@
         <v/>
       </c>
       <c r="P321" t="str">
-        <v/>
+        <v>1.03</v>
       </c>
       <c r="Q321" t="str">
         <v>0.99</v>
@@ -24199,7 +24199,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F322" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=675159939357</v>
       </c>
       <c r="G322" t="str">
         <v/>
@@ -24229,7 +24229,7 @@
         <v/>
       </c>
       <c r="P322" t="str">
-        <v/>
+        <v>2.14</v>
       </c>
       <c r="Q322" t="str">
         <v>2.06</v>
@@ -24273,7 +24273,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F323" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=675159939357</v>
       </c>
       <c r="G323" t="str">
         <v/>
@@ -24303,7 +24303,7 @@
         <v/>
       </c>
       <c r="P323" t="str">
-        <v/>
+        <v>2.14</v>
       </c>
       <c r="Q323" t="str">
         <v>2.06</v>
@@ -24347,7 +24347,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F324" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=675159939357</v>
       </c>
       <c r="G324" t="str">
         <v/>
@@ -24377,7 +24377,7 @@
         <v/>
       </c>
       <c r="P324" t="str">
-        <v/>
+        <v>2.14</v>
       </c>
       <c r="Q324" t="str">
         <v>2.06</v>
@@ -24421,7 +24421,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F325" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9eAKJ?ck=minisite</v>
       </c>
       <c r="G325" t="str">
         <v/>
@@ -24451,7 +24451,7 @@
         <v/>
       </c>
       <c r="P325" t="str">
-        <v/>
+        <v>38.72</v>
       </c>
       <c r="Q325" t="str">
         <v>33.06</v>
@@ -24495,7 +24495,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F326" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=746806471081</v>
       </c>
       <c r="G326" t="str">
         <v/>
@@ -24525,7 +24525,7 @@
         <v/>
       </c>
       <c r="P326" t="str">
-        <v/>
+        <v>2.574</v>
       </c>
       <c r="Q326" t="str">
         <v>2.18</v>
@@ -24569,7 +24569,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F327" t="str">
-        <v/>
+        <v>https://x.alibaba.com/x5M3GEu?ck=minisite</v>
       </c>
       <c r="G327" t="str">
         <v/>
@@ -24599,7 +24599,7 @@
         <v/>
       </c>
       <c r="P327" t="str">
-        <v/>
+        <v>16.119</v>
       </c>
       <c r="Q327" t="str">
         <v>15.53</v>
@@ -24643,7 +24643,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F328" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G328" t="str">
         <v/>
@@ -24673,7 +24673,7 @@
         <v/>
       </c>
       <c r="P328" t="str">
-        <v/>
+        <v>5.247</v>
       </c>
       <c r="Q328" t="str">
         <v>4.52</v>
@@ -24717,7 +24717,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F329" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G329" t="str">
         <v/>
@@ -24747,7 +24747,7 @@
         <v/>
       </c>
       <c r="P329" t="str">
-        <v/>
+        <v>1.997</v>
       </c>
       <c r="Q329" t="str">
         <v>1.94</v>
@@ -24791,7 +24791,7 @@
         <v>Bột</v>
       </c>
       <c r="F330" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G330" t="str">
         <v/>
@@ -24821,7 +24821,7 @@
         <v/>
       </c>
       <c r="P330" t="str">
-        <v/>
+        <v>20.478</v>
       </c>
       <c r="Q330" t="str">
         <v>17.59</v>
@@ -24865,7 +24865,7 @@
         <v>Bột</v>
       </c>
       <c r="F331" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G331" t="str">
         <v/>
@@ -24895,7 +24895,7 @@
         <v/>
       </c>
       <c r="P331" t="str">
-        <v/>
+        <v>22.907</v>
       </c>
       <c r="Q331" t="str">
         <v>19.75</v>
@@ -24939,7 +24939,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F332" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G332" t="str">
         <v/>
@@ -24969,7 +24969,7 @@
         <v/>
       </c>
       <c r="P332" t="str">
-        <v/>
+        <v>41.692</v>
       </c>
       <c r="Q332" t="str">
         <v>37.02</v>
@@ -25013,7 +25013,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F333" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G333" t="str">
         <v/>
@@ -25043,7 +25043,7 @@
         <v/>
       </c>
       <c r="P333" t="str">
-        <v/>
+        <v>35.975</v>
       </c>
       <c r="Q333" t="str">
         <v>30.97</v>
@@ -25087,7 +25087,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F334" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G334" t="str">
         <v/>
@@ -25117,7 +25117,7 @@
         <v/>
       </c>
       <c r="P334" t="str">
-        <v/>
+        <v>36.148</v>
       </c>
       <c r="Q334" t="str">
         <v>31.16</v>
@@ -25161,7 +25161,7 @@
         <v>Bột</v>
       </c>
       <c r="F335" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G335" t="str">
         <v/>
@@ -25191,7 +25191,7 @@
         <v/>
       </c>
       <c r="P335" t="str">
-        <v/>
+        <v>22.19</v>
       </c>
       <c r="Q335" t="str">
         <v>19.06</v>
@@ -25235,7 +25235,7 @@
         <v>Bột</v>
       </c>
       <c r="F336" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G336" t="str">
         <v/>
@@ -25265,7 +25265,7 @@
         <v/>
       </c>
       <c r="P336" t="str">
-        <v/>
+        <v>21.393</v>
       </c>
       <c r="Q336" t="str">
         <v>18.38</v>
@@ -25309,7 +25309,7 @@
         <v>Bột</v>
       </c>
       <c r="F337" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G337" t="str">
         <v/>
@@ -25339,7 +25339,7 @@
         <v/>
       </c>
       <c r="P337" t="str">
-        <v/>
+        <v>22.19</v>
       </c>
       <c r="Q337" t="str">
         <v>19.06</v>
@@ -25383,7 +25383,7 @@
         <v>Bột</v>
       </c>
       <c r="F338" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G338" t="str">
         <v/>
@@ -25413,7 +25413,7 @@
         <v/>
       </c>
       <c r="P338" t="str">
-        <v/>
+        <v>20.478</v>
       </c>
       <c r="Q338" t="str">
         <v>17.59</v>
@@ -25457,7 +25457,7 @@
         <v>Bột</v>
       </c>
       <c r="F339" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G339" t="str">
         <v/>
@@ -25487,7 +25487,7 @@
         <v/>
       </c>
       <c r="P339" t="str">
-        <v/>
+        <v>22.907</v>
       </c>
       <c r="Q339" t="str">
         <v>19.75</v>
@@ -25531,7 +25531,7 @@
         <v>Bột</v>
       </c>
       <c r="F340" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G340" t="str">
         <v/>
@@ -25561,7 +25561,7 @@
         <v/>
       </c>
       <c r="P340" t="str">
-        <v/>
+        <v>20.478</v>
       </c>
       <c r="Q340" t="str">
         <v>17.59</v>
@@ -25605,7 +25605,7 @@
         <v>Bột</v>
       </c>
       <c r="F341" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G341" t="str">
         <v/>
@@ -25635,7 +25635,7 @@
         <v/>
       </c>
       <c r="P341" t="str">
-        <v/>
+        <v>21.393</v>
       </c>
       <c r="Q341" t="str">
         <v>18.38</v>
@@ -25679,7 +25679,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F342" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G342" t="str">
         <v/>
@@ -25709,7 +25709,7 @@
         <v/>
       </c>
       <c r="P342" t="str">
-        <v/>
+        <v>7.733</v>
       </c>
       <c r="Q342" t="str">
         <v>6.67</v>
@@ -25753,7 +25753,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F343" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G343" t="str">
         <v/>
@@ -25783,7 +25783,7 @@
         <v/>
       </c>
       <c r="P343" t="str">
-        <v/>
+        <v>5.375</v>
       </c>
       <c r="Q343" t="str">
         <v>4.98</v>
@@ -25827,7 +25827,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F344" t="str">
-        <v/>
+        <v>DV GOLDEN NAILS</v>
       </c>
       <c r="G344" t="str">
         <v/>
@@ -25857,7 +25857,7 @@
         <v/>
       </c>
       <c r="P344" t="str">
-        <v/>
+        <v>102.9643905</v>
       </c>
       <c r="Q344" t="str">
         <v>87.22</v>
@@ -25901,7 +25901,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F345" t="str">
-        <v/>
+        <v>QBuffer Kevin Viber</v>
       </c>
       <c r="G345" t="str">
         <v/>
@@ -25931,7 +25931,7 @@
         <v/>
       </c>
       <c r="P345" t="str">
-        <v/>
+        <v>8.738</v>
       </c>
       <c r="Q345" t="str">
         <v>8.10</v>
@@ -25975,7 +25975,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F346" t="str">
-        <v/>
+        <v>QBuffer Kevin Viber</v>
       </c>
       <c r="G346" t="str">
         <v/>
@@ -26005,7 +26005,7 @@
         <v/>
       </c>
       <c r="P346" t="str">
-        <v/>
+        <v>8.738</v>
       </c>
       <c r="Q346" t="str">
         <v>8.10</v>
@@ -26049,7 +26049,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F347" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXUc?ck=minisite</v>
       </c>
       <c r="G347" t="str">
         <v/>
@@ -26079,7 +26079,7 @@
         <v/>
       </c>
       <c r="P347" t="str">
-        <v/>
+        <v>44.413</v>
       </c>
       <c r="Q347" t="str">
         <v>38.27</v>
@@ -26123,7 +26123,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F348" t="str">
-        <v/>
+        <v>Senia Asmei</v>
       </c>
       <c r="G348" t="str">
         <v/>
@@ -26153,7 +26153,7 @@
         <v/>
       </c>
       <c r="P348" t="str">
-        <v/>
+        <v>43.841</v>
       </c>
       <c r="Q348" t="str">
         <v>40.64</v>
@@ -26197,7 +26197,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F349" t="str">
-        <v/>
+        <v>Senia Asmei</v>
       </c>
       <c r="G349" t="str">
         <v/>
@@ -26227,7 +26227,7 @@
         <v/>
       </c>
       <c r="P349" t="str">
-        <v/>
+        <v>43.841</v>
       </c>
       <c r="Q349" t="str">
         <v>40.64</v>
@@ -26271,7 +26271,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F350" t="str">
-        <v/>
+        <v>Senia Asmei</v>
       </c>
       <c r="G350" t="str">
         <v/>
@@ -26301,7 +26301,7 @@
         <v/>
       </c>
       <c r="P350" t="str">
-        <v/>
+        <v>27.741</v>
       </c>
       <c r="Q350" t="str">
         <v>25.71</v>
@@ -26345,7 +26345,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F351" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xrIUSw8?ck=minisite</v>
       </c>
       <c r="G351" t="str">
         <v/>
@@ -26375,7 +26375,7 @@
         <v/>
       </c>
       <c r="P351" t="str">
-        <v/>
+        <v>12.346</v>
       </c>
       <c r="Q351" t="str">
         <v>11.44</v>
@@ -26419,7 +26419,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F352" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xrIUSw8?ck=minisite</v>
       </c>
       <c r="G352" t="str">
         <v/>
@@ -26449,7 +26449,7 @@
         <v/>
       </c>
       <c r="P352" t="str">
-        <v/>
+        <v>0.556</v>
       </c>
       <c r="Q352" t="str">
         <v>0.52</v>
@@ -26493,7 +26493,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F353" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xrIUSw8?ck=minisite</v>
       </c>
       <c r="G353" t="str">
         <v/>
@@ -26523,7 +26523,7 @@
         <v/>
       </c>
       <c r="P353" t="str">
-        <v/>
+        <v>0.576</v>
       </c>
       <c r="Q353" t="str">
         <v>0.53</v>
@@ -26567,7 +26567,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F354" t="str">
-        <v/>
+        <v>Loboter</v>
       </c>
       <c r="G354" t="str">
         <v/>
@@ -26597,7 +26597,7 @@
         <v/>
       </c>
       <c r="P354" t="str">
-        <v/>
+        <v>69.697</v>
       </c>
       <c r="Q354" t="str">
         <v>59.50</v>
@@ -26641,7 +26641,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F355" t="str">
-        <v/>
+        <v>Funuo</v>
       </c>
       <c r="G355" t="str">
         <v/>
@@ -26671,7 +26671,7 @@
         <v/>
       </c>
       <c r="P355" t="str">
-        <v/>
+        <v>83.196</v>
       </c>
       <c r="Q355" t="str">
         <v>70.82</v>
@@ -26715,7 +26715,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F356" t="str">
-        <v/>
+        <v>Dongguan Besung Electric Appliance Co.</v>
       </c>
       <c r="G356" t="str">
         <v/>
@@ -26745,7 +26745,7 @@
         <v/>
       </c>
       <c r="P356" t="str">
-        <v/>
+        <v>25.828</v>
       </c>
       <c r="Q356" t="str">
         <v>22.26</v>
@@ -26789,7 +26789,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F357" t="str">
-        <v/>
+        <v>Loboter</v>
       </c>
       <c r="G357" t="str">
         <v/>
@@ -26819,7 +26819,7 @@
         <v/>
       </c>
       <c r="P357" t="str">
-        <v/>
+        <v>10.946</v>
       </c>
       <c r="Q357" t="str">
         <v>10.15</v>
@@ -26863,7 +26863,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F358" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xhlu0lg?ck=minisite</v>
       </c>
       <c r="G358" t="str">
         <v/>
@@ -26893,7 +26893,7 @@
         <v/>
       </c>
       <c r="P358" t="str">
-        <v/>
+        <v>1.526</v>
       </c>
       <c r="Q358" t="str">
         <v>1.41</v>
@@ -26937,7 +26937,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F359" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xyyRxjs?ck=minisite</v>
       </c>
       <c r="G359" t="str">
         <v/>
@@ -26967,7 +26967,7 @@
         <v/>
       </c>
       <c r="P359" t="str">
-        <v/>
+        <v>0.996</v>
       </c>
       <c r="Q359" t="str">
         <v>0.92</v>
@@ -27011,7 +27011,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F360" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G360" t="str">
         <v/>
@@ -27041,7 +27041,7 @@
         <v/>
       </c>
       <c r="P360" t="str">
-        <v/>
+        <v>41.8</v>
       </c>
       <c r="Q360" t="str">
         <v>36.24</v>
@@ -27085,7 +27085,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F361" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9bb19?ck=minisite</v>
       </c>
       <c r="G361" t="str">
         <v/>
@@ -27115,7 +27115,7 @@
         <v/>
       </c>
       <c r="P361" t="str">
-        <v/>
+        <v>31.983</v>
       </c>
       <c r="Q361" t="str">
         <v>27.22</v>
@@ -27159,7 +27159,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F362" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G362" t="str">
         <v/>
@@ -27189,7 +27189,7 @@
         <v/>
       </c>
       <c r="P362" t="str">
-        <v/>
+        <v>63.446</v>
       </c>
       <c r="Q362" t="str">
         <v>58.81</v>
@@ -27233,7 +27233,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F363" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G363" t="str">
         <v/>
@@ -27263,7 +27263,7 @@
         <v/>
       </c>
       <c r="P363" t="str">
-        <v/>
+        <v>5.946</v>
       </c>
       <c r="Q363" t="str">
         <v>5.51</v>
@@ -27307,7 +27307,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F364" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G364" t="str">
         <v/>
@@ -27337,7 +27337,7 @@
         <v/>
       </c>
       <c r="P364" t="str">
-        <v/>
+        <v>5.646</v>
       </c>
       <c r="Q364" t="str">
         <v>5.23</v>
@@ -27381,7 +27381,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F365" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xK4F1vx?ck=minisite</v>
       </c>
       <c r="G365" t="str">
         <v/>
@@ -27411,7 +27411,7 @@
         <v/>
       </c>
       <c r="P365" t="str">
-        <v/>
+        <v>32.946</v>
       </c>
       <c r="Q365" t="str">
         <v>30.54</v>
@@ -27455,7 +27455,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F366" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xK4F1vx?ck=minisite</v>
       </c>
       <c r="G366" t="str">
         <v/>
@@ -27485,7 +27485,7 @@
         <v/>
       </c>
       <c r="P366" t="str">
-        <v/>
+        <v>30.446</v>
       </c>
       <c r="Q366" t="str">
         <v>28.22</v>
@@ -27529,7 +27529,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F367" t="str">
-        <v/>
+        <v>Shanghai Chiyan Abrasives Co.</v>
       </c>
       <c r="G367" t="str">
         <v/>
@@ -27559,7 +27559,7 @@
         <v/>
       </c>
       <c r="P367" t="str">
-        <v/>
+        <v>5.709</v>
       </c>
       <c r="Q367" t="str">
         <v>4.92</v>
@@ -27603,7 +27603,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F368" t="str">
-        <v/>
+        <v>Shanghai Chiyan Abrasives Co.</v>
       </c>
       <c r="G368" t="str">
         <v/>
@@ -27633,7 +27633,7 @@
         <v/>
       </c>
       <c r="P368" t="str">
-        <v/>
+        <v>5.709</v>
       </c>
       <c r="Q368" t="str">
         <v>4.92</v>
@@ -27677,7 +27677,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F369" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G369" t="str">
         <v/>
@@ -27707,7 +27707,7 @@
         <v/>
       </c>
       <c r="P369" t="str">
-        <v/>
+        <v>0.331</v>
       </c>
       <c r="Q369" t="str">
         <v>0.29</v>
@@ -27751,7 +27751,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F370" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=661227685213</v>
       </c>
       <c r="G370" t="str">
         <v/>
@@ -27781,7 +27781,7 @@
         <v/>
       </c>
       <c r="P370" t="str">
-        <v/>
+        <v>1.17</v>
       </c>
       <c r="Q370" t="str">
         <v>1.00</v>
@@ -27825,7 +27825,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F371" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1ILB?ck=minisite</v>
       </c>
       <c r="G371" t="str">
         <v/>
@@ -27855,7 +27855,7 @@
         <v/>
       </c>
       <c r="P371" t="str">
-        <v/>
+        <v>2.031</v>
       </c>
       <c r="Q371" t="str">
         <v>1.76</v>
@@ -27899,7 +27899,7 @@
         <v>Dũa</v>
       </c>
       <c r="F372" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0t4H?ck=minisite</v>
       </c>
       <c r="G372" t="str">
         <v/>
@@ -27929,7 +27929,7 @@
         <v/>
       </c>
       <c r="P372" t="str">
-        <v/>
+        <v>16.535</v>
       </c>
       <c r="Q372" t="str">
         <v>14.34</v>
@@ -27973,7 +27973,7 @@
         <v>Dũa</v>
       </c>
       <c r="F373" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0t4H?ck=minisite</v>
       </c>
       <c r="G373" t="str">
         <v/>
@@ -28003,7 +28003,7 @@
         <v/>
       </c>
       <c r="P373" t="str">
-        <v/>
+        <v>16.535</v>
       </c>
       <c r="Q373" t="str">
         <v>14.34</v>
@@ -28047,7 +28047,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F374" t="str">
-        <v/>
+        <v>https://x.alibaba.com/xme4Xfu?ck=minisite</v>
       </c>
       <c r="G374" t="str">
         <v/>
@@ -28077,7 +28077,7 @@
         <v/>
       </c>
       <c r="P374" t="str">
-        <v/>
+        <v>26.45</v>
       </c>
       <c r="Q374" t="str">
         <v>23.92</v>
@@ -28121,7 +28121,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F375" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=630262781667</v>
       </c>
       <c r="G375" t="str">
         <v/>
@@ -28151,7 +28151,7 @@
         <v/>
       </c>
       <c r="P375" t="str">
-        <v/>
+        <v>1.486</v>
       </c>
       <c r="Q375" t="str">
         <v>1.34</v>
@@ -28195,7 +28195,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F376" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=630262781668</v>
       </c>
       <c r="G376" t="str">
         <v/>
@@ -28225,7 +28225,7 @@
         <v/>
       </c>
       <c r="P376" t="str">
-        <v/>
+        <v>1.486</v>
       </c>
       <c r="Q376" t="str">
         <v>1.34</v>
@@ -28269,7 +28269,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F377" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=630262781669</v>
       </c>
       <c r="G377" t="str">
         <v/>
@@ -28299,7 +28299,7 @@
         <v/>
       </c>
       <c r="P377" t="str">
-        <v/>
+        <v>1.486</v>
       </c>
       <c r="Q377" t="str">
         <v>1.34</v>
@@ -28343,7 +28343,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F378" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=630262781670</v>
       </c>
       <c r="G378" t="str">
         <v/>
@@ -28373,7 +28373,7 @@
         <v/>
       </c>
       <c r="P378" t="str">
-        <v/>
+        <v>1.486</v>
       </c>
       <c r="Q378" t="str">
         <v>1.34</v>
@@ -28417,7 +28417,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F379" t="str">
-        <v/>
+        <v>agnes@barbicide.pro</v>
       </c>
       <c r="G379" t="str">
         <v/>
@@ -28447,7 +28447,7 @@
         <v/>
       </c>
       <c r="P379" t="str">
-        <v/>
+        <v>6.24</v>
       </c>
       <c r="Q379" t="str">
         <v>5.49</v>
@@ -28491,7 +28491,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F380" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9h4OJ?ck=minisite</v>
       </c>
       <c r="G380" t="str">
         <v/>
@@ -28521,7 +28521,7 @@
         <v/>
       </c>
       <c r="P380" t="str">
-        <v/>
+        <v>1.471</v>
       </c>
       <c r="Q380" t="str">
         <v>1.26</v>
@@ -28565,7 +28565,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F381" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXlLY?ck=minisite</v>
       </c>
       <c r="G381" t="str">
         <v/>
@@ -28595,7 +28595,7 @@
         <v/>
       </c>
       <c r="P381" t="str">
-        <v/>
+        <v>1.216</v>
       </c>
       <c r="Q381" t="str">
         <v>1.08</v>
@@ -28639,7 +28639,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F382" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXm2B?ck=minisite</v>
       </c>
       <c r="G382" t="str">
         <v/>
@@ -28669,7 +28669,7 @@
         <v/>
       </c>
       <c r="P382" t="str">
-        <v/>
+        <v>4.194</v>
       </c>
       <c r="Q382" t="str">
         <v>3.73</v>
@@ -28713,7 +28713,7 @@
         <v>Design</v>
       </c>
       <c r="F383" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXlLY?ck=minisite</v>
       </c>
       <c r="G383" t="str">
         <v/>
@@ -28743,7 +28743,7 @@
         <v/>
       </c>
       <c r="P383" t="str">
-        <v/>
+        <v>2.675</v>
       </c>
       <c r="Q383" t="str">
         <v>2.38</v>
@@ -28787,7 +28787,7 @@
         <v>Design</v>
       </c>
       <c r="F384" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXlLY?ck=minisite</v>
       </c>
       <c r="G384" t="str">
         <v/>
@@ -28817,7 +28817,7 @@
         <v/>
       </c>
       <c r="P384" t="str">
-        <v/>
+        <v>2.675</v>
       </c>
       <c r="Q384" t="str">
         <v>2.38</v>
@@ -28861,7 +28861,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F385" t="str">
-        <v/>
+        <v>Aosmei</v>
       </c>
       <c r="G385" t="str">
         <v/>
@@ -28891,7 +28891,7 @@
         <v/>
       </c>
       <c r="P385" t="str">
-        <v/>
+        <v>44.2</v>
       </c>
       <c r="Q385" t="str">
         <v>39.28</v>
@@ -28935,7 +28935,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F386" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G386" t="str">
         <v/>
@@ -28965,7 +28965,7 @@
         <v/>
       </c>
       <c r="P386" t="str">
-        <v/>
+        <v>2.838</v>
       </c>
       <c r="Q386" t="str">
         <v>2.52</v>
@@ -29009,7 +29009,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F387" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G387" t="str">
         <v/>
@@ -29039,7 +29039,7 @@
         <v/>
       </c>
       <c r="P387" t="str">
-        <v/>
+        <v>1.588</v>
       </c>
       <c r="Q387" t="str">
         <v>1.41</v>
@@ -29083,7 +29083,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F388" t="str">
-        <v/>
+        <v>Wilson</v>
       </c>
       <c r="G388" t="str">
         <v/>
@@ -29113,7 +29113,7 @@
         <v/>
       </c>
       <c r="P388" t="str">
-        <v/>
+        <v>2.518</v>
       </c>
       <c r="Q388" t="str">
         <v>2.24</v>
@@ -29157,7 +29157,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F389" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G389" t="str">
         <v/>
@@ -29187,7 +29187,7 @@
         <v/>
       </c>
       <c r="P389" t="str">
-        <v/>
+        <v>36.148</v>
       </c>
       <c r="Q389" t="str">
         <v>31.16</v>
@@ -29231,7 +29231,7 @@
         <v>Bột</v>
       </c>
       <c r="F390" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G390" t="str">
         <v/>
@@ -29261,7 +29261,7 @@
         <v/>
       </c>
       <c r="P390" t="str">
-        <v/>
+        <v>29.217</v>
       </c>
       <c r="Q390" t="str">
         <v>25.19</v>
@@ -29305,7 +29305,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F391" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G391" t="str">
         <v/>
@@ -29335,7 +29335,7 @@
         <v/>
       </c>
       <c r="P391" t="str">
-        <v/>
+        <v>51.954</v>
       </c>
       <c r="Q391" t="str">
         <v>46.17</v>
@@ -29379,7 +29379,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F392" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXr8X?ck=minisite</v>
       </c>
       <c r="G392" t="str">
         <v/>
@@ -29409,7 +29409,7 @@
         <v/>
       </c>
       <c r="P392" t="str">
-        <v/>
+        <v>5.882</v>
       </c>
       <c r="Q392" t="str">
         <v>5.23</v>
@@ -29453,7 +29453,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F393" t="str">
-        <v/>
+        <v>Yiwu Loboter</v>
       </c>
       <c r="G393" t="str">
         <v/>
@@ -29483,7 +29483,7 @@
         <v/>
       </c>
       <c r="P393" t="str">
-        <v/>
+        <v>9.69</v>
       </c>
       <c r="Q393" t="str">
         <v>8.61</v>
@@ -29527,7 +29527,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F394" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXvLQ?ck=minisite</v>
       </c>
       <c r="G394" t="str">
         <v/>
@@ -29557,7 +29557,7 @@
         <v/>
       </c>
       <c r="P394" t="str">
-        <v/>
+        <v>46.393</v>
       </c>
       <c r="Q394" t="str">
         <v>41.77</v>
@@ -29601,7 +29601,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F395" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXvLQ?ck=minisite</v>
       </c>
       <c r="G395" t="str">
         <v/>
@@ -29631,7 +29631,7 @@
         <v/>
       </c>
       <c r="P395" t="str">
-        <v/>
+        <v>46.393</v>
       </c>
       <c r="Q395" t="str">
         <v>41.77</v>
@@ -29675,7 +29675,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F396" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G396" t="str">
         <v/>
@@ -29705,7 +29705,7 @@
         <v/>
       </c>
       <c r="P396" t="str">
-        <v/>
+        <v>28.763</v>
       </c>
       <c r="Q396" t="str">
         <v>25.90</v>
@@ -29749,7 +29749,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F397" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G397" t="str">
         <v/>
@@ -29779,7 +29779,7 @@
         <v/>
       </c>
       <c r="P397" t="str">
-        <v/>
+        <v>21.763</v>
       </c>
       <c r="Q397" t="str">
         <v>#ERROR!</v>
@@ -29823,7 +29823,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F398" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vO63?ck=minisite</v>
       </c>
       <c r="G398" t="str">
         <v/>
@@ -29853,7 +29853,7 @@
         <v/>
       </c>
       <c r="P398" t="str">
-        <v/>
+        <v>51.409</v>
       </c>
       <c r="Q398" t="str">
         <v>44.32</v>
@@ -29897,7 +29897,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F399" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=840296014439</v>
       </c>
       <c r="G399" t="str">
         <v/>
@@ -29927,7 +29927,7 @@
         <v/>
       </c>
       <c r="P399" t="str">
-        <v/>
+        <v>1.667</v>
       </c>
       <c r="Q399" t="str">
         <v>1.50</v>
@@ -29971,7 +29971,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F400" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=613951806749</v>
       </c>
       <c r="G400" t="str">
         <v/>
@@ -30001,7 +30001,7 @@
         <v/>
       </c>
       <c r="P400" t="str">
-        <v/>
+        <v>1.328</v>
       </c>
       <c r="Q400" t="str">
         <v>1.20</v>
@@ -30045,7 +30045,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F401" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=613951806749</v>
       </c>
       <c r="G401" t="str">
         <v/>
@@ -30075,7 +30075,7 @@
         <v/>
       </c>
       <c r="P401" t="str">
-        <v/>
+        <v>0.746</v>
       </c>
       <c r="Q401" t="str">
         <v>0.67</v>
@@ -30119,7 +30119,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F402" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXtff?ck=minisite</v>
       </c>
       <c r="G402" t="str">
         <v/>
@@ -30149,7 +30149,7 @@
         <v/>
       </c>
       <c r="P402" t="str">
-        <v/>
+        <v>16.158</v>
       </c>
       <c r="Q402" t="str">
         <v>14.55</v>
@@ -30193,7 +30193,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F403" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXtji?ck=minisite</v>
       </c>
       <c r="G403" t="str">
         <v/>
@@ -30223,7 +30223,7 @@
         <v/>
       </c>
       <c r="P403" t="str">
-        <v/>
+        <v>21.011</v>
       </c>
       <c r="Q403" t="str">
         <v>18.92</v>
@@ -30297,7 +30297,7 @@
         <v/>
       </c>
       <c r="P404" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q404" t="str">
         <v>0.00</v>
@@ -30341,7 +30341,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F405" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXptD?ck=minisite</v>
       </c>
       <c r="G405" t="str">
         <v/>
@@ -30371,7 +30371,7 @@
         <v/>
       </c>
       <c r="P405" t="str">
-        <v/>
+        <v>3.138</v>
       </c>
       <c r="Q405" t="str">
         <v>2.79</v>
@@ -30415,7 +30415,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F406" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXptD?ck=minisite</v>
       </c>
       <c r="G406" t="str">
         <v/>
@@ -30445,7 +30445,7 @@
         <v/>
       </c>
       <c r="P406" t="str">
-        <v/>
+        <v>3.138</v>
       </c>
       <c r="Q406" t="str">
         <v>2.79</v>
@@ -30489,7 +30489,7 @@
         <v>Design</v>
       </c>
       <c r="F407" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=739503525338</v>
       </c>
       <c r="G407" t="str">
         <v/>
@@ -30519,7 +30519,7 @@
         <v/>
       </c>
       <c r="P407" t="str">
-        <v/>
+        <v>3.14</v>
       </c>
       <c r="Q407" t="str">
         <v>2.79</v>
@@ -30563,7 +30563,7 @@
         <v>Design</v>
       </c>
       <c r="F408" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=753888536542</v>
       </c>
       <c r="G408" t="str">
         <v/>
@@ -30593,7 +30593,7 @@
         <v/>
       </c>
       <c r="P408" t="str">
-        <v/>
+        <v>0.693</v>
       </c>
       <c r="Q408" t="str">
         <v>0.62</v>
@@ -30637,7 +30637,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F409" t="str">
-        <v/>
+        <v>Yiwu Loboter</v>
       </c>
       <c r="G409" t="str">
         <v/>
@@ -30667,7 +30667,7 @@
         <v/>
       </c>
       <c r="P409" t="str">
-        <v/>
+        <v>27.686</v>
       </c>
       <c r="Q409" t="str">
         <v>24.61</v>
@@ -30711,7 +30711,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F410" t="str">
-        <v/>
+        <v>Yiwu Loboter</v>
       </c>
       <c r="G410" t="str">
         <v/>
@@ -30741,7 +30741,7 @@
         <v/>
       </c>
       <c r="P410" t="str">
-        <v/>
+        <v>2.63</v>
       </c>
       <c r="Q410" t="str">
         <v>2.34</v>
@@ -30785,7 +30785,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F411" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXv8r?ck=minisite</v>
       </c>
       <c r="G411" t="str">
         <v/>
@@ -30815,7 +30815,7 @@
         <v/>
       </c>
       <c r="P411" t="str">
-        <v/>
+        <v>18.363</v>
       </c>
       <c r="Q411" t="str">
         <v>16.53</v>
@@ -30859,7 +30859,7 @@
         <v>Design</v>
       </c>
       <c r="F412" t="str">
-        <v/>
+        <v>Bozlin</v>
       </c>
       <c r="G412" t="str">
         <v/>
@@ -30889,7 +30889,7 @@
         <v/>
       </c>
       <c r="P412" t="str">
-        <v/>
+        <v>2.131</v>
       </c>
       <c r="Q412" t="str">
         <v>1.92</v>
@@ -30933,7 +30933,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F413" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=789828685629</v>
       </c>
       <c r="G413" t="str">
         <v/>
@@ -30963,7 +30963,7 @@
         <v/>
       </c>
       <c r="P413" t="str">
-        <v/>
+        <v>7.469</v>
       </c>
       <c r="Q413" t="str">
         <v>6.73</v>
@@ -31007,7 +31007,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F414" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=789828685629</v>
       </c>
       <c r="G414" t="str">
         <v/>
@@ -31037,7 +31037,7 @@
         <v/>
       </c>
       <c r="P414" t="str">
-        <v/>
+        <v>7.469</v>
       </c>
       <c r="Q414" t="str">
         <v>6.73</v>
@@ -31081,7 +31081,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F415" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzXth5?ck=minisite</v>
       </c>
       <c r="G415" t="str">
         <v/>
@@ -31111,7 +31111,7 @@
         <v/>
       </c>
       <c r="P415" t="str">
-        <v/>
+        <v>1.694</v>
       </c>
       <c r="Q415" t="str">
         <v>1.53</v>
@@ -31155,7 +31155,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F416" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G416" t="str">
         <v/>
@@ -31185,7 +31185,7 @@
         <v/>
       </c>
       <c r="P416" t="str">
-        <v/>
+        <v>74.077</v>
       </c>
       <c r="Q416" t="str">
         <v>65.78</v>
@@ -31229,7 +31229,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F417" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzbocS?ck=minisite</v>
       </c>
       <c r="G417" t="str">
         <v/>
@@ -31259,7 +31259,7 @@
         <v/>
       </c>
       <c r="P417" t="str">
-        <v/>
+        <v>31.95</v>
       </c>
       <c r="Q417" t="str">
         <v>28.37</v>
@@ -31303,7 +31303,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F418" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzbocS?ck=minisite</v>
       </c>
       <c r="G418" t="str">
         <v/>
@@ -31333,7 +31333,7 @@
         <v/>
       </c>
       <c r="P418" t="str">
-        <v/>
+        <v>3.035</v>
       </c>
       <c r="Q418" t="str">
         <v>2.69</v>
@@ -31377,7 +31377,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F419" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXUc?ck=minisite</v>
       </c>
       <c r="G419" t="str">
         <v/>
@@ -31407,7 +31407,7 @@
         <v/>
       </c>
       <c r="P419" t="str">
-        <v/>
+        <v>2.588</v>
       </c>
       <c r="Q419" t="str">
         <v>2.23</v>
@@ -31451,7 +31451,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F420" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzbocS?ck=minisite</v>
       </c>
       <c r="G420" t="str">
         <v/>
@@ -31481,7 +31481,7 @@
         <v/>
       </c>
       <c r="P420" t="str">
-        <v/>
+        <v>2.229</v>
       </c>
       <c r="Q420" t="str">
         <v>1.98</v>
@@ -31525,7 +31525,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F421" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9oSxz?ck=minisite</v>
       </c>
       <c r="G421" t="str">
         <v/>
@@ -31555,7 +31555,7 @@
         <v/>
       </c>
       <c r="P421" t="str">
-        <v/>
+        <v>14.861</v>
       </c>
       <c r="Q421" t="str">
         <v>12.63</v>
@@ -31599,7 +31599,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F422" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G422" t="str">
         <v/>
@@ -31629,7 +31629,7 @@
         <v/>
       </c>
       <c r="P422" t="str">
-        <v/>
+        <v>51.685</v>
       </c>
       <c r="Q422" t="str">
         <v>45.23</v>
@@ -31673,7 +31673,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F423" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G423" t="str">
         <v/>
@@ -31703,7 +31703,7 @@
         <v/>
       </c>
       <c r="P423" t="str">
-        <v/>
+        <v>76.896</v>
       </c>
       <c r="Q423" t="str">
         <v>67.29</v>
@@ -31747,7 +31747,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F424" t="str">
-        <v/>
+        <v>nail888</v>
       </c>
       <c r="G424" t="str">
         <v/>
@@ -31777,7 +31777,7 @@
         <v/>
       </c>
       <c r="P424" t="str">
-        <v/>
+        <v>33.227</v>
       </c>
       <c r="Q424" t="str">
         <v>28.63</v>
@@ -31821,7 +31821,7 @@
         <v>Bút</v>
       </c>
       <c r="F425" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=769146319954</v>
       </c>
       <c r="G425" t="str">
         <v/>
@@ -31851,7 +31851,7 @@
         <v/>
       </c>
       <c r="P425" t="str">
-        <v/>
+        <v>0.686</v>
       </c>
       <c r="Q425" t="str">
         <v>0.58</v>
@@ -31895,7 +31895,7 @@
         <v>Dũa</v>
       </c>
       <c r="F426" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzzqcX?ck=minisite</v>
       </c>
       <c r="G426" t="str">
         <v/>
@@ -31925,7 +31925,7 @@
         <v/>
       </c>
       <c r="P426" t="str">
-        <v/>
+        <v>5.963</v>
       </c>
       <c r="Q426" t="str">
         <v>5.06</v>
@@ -31969,7 +31969,7 @@
         <v>Dũa</v>
       </c>
       <c r="F427" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzzqcX?ck=minisite</v>
       </c>
       <c r="G427" t="str">
         <v/>
@@ -31999,7 +31999,7 @@
         <v/>
       </c>
       <c r="P427" t="str">
-        <v/>
+        <v>5.963</v>
       </c>
       <c r="Q427" t="str">
         <v>5.06</v>
@@ -32043,7 +32043,7 @@
         <v>Tips</v>
       </c>
       <c r="F428" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AzzqgO?ck=minisite</v>
       </c>
       <c r="G428" t="str">
         <v/>
@@ -32073,7 +32073,7 @@
         <v/>
       </c>
       <c r="P428" t="str">
-        <v/>
+        <v>0.214</v>
       </c>
       <c r="Q428" t="str">
         <v>0.18</v>
@@ -32117,7 +32117,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F429" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=641632947446</v>
       </c>
       <c r="G429" t="str">
         <v/>
@@ -32147,7 +32147,7 @@
         <v/>
       </c>
       <c r="P429" t="str">
-        <v/>
+        <v>2.679</v>
       </c>
       <c r="Q429" t="str">
         <v>2.27</v>
@@ -32191,7 +32191,7 @@
         <v>Bút</v>
       </c>
       <c r="F430" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B00P5U?ck=minisite</v>
       </c>
       <c r="G430" t="str">
         <v/>
@@ -32221,7 +32221,7 @@
         <v/>
       </c>
       <c r="P430" t="str">
-        <v/>
+        <v>18.58</v>
       </c>
       <c r="Q430" t="str">
         <v>15.74</v>
@@ -32265,7 +32265,7 @@
         <v>Design</v>
       </c>
       <c r="F431" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B00Q9G?ck=minisite</v>
       </c>
       <c r="G431" t="str">
         <v/>
@@ -32295,7 +32295,7 @@
         <v/>
       </c>
       <c r="P431" t="str">
-        <v/>
+        <v>1.844</v>
       </c>
       <c r="Q431" t="str">
         <v>1.56</v>
@@ -32339,7 +32339,7 @@
         <v>Design</v>
       </c>
       <c r="F432" t="str">
-        <v/>
+        <v>https://x.alibaba.com/B00Q9G?ck=minisite</v>
       </c>
       <c r="G432" t="str">
         <v/>
@@ -32369,7 +32369,7 @@
         <v/>
       </c>
       <c r="P432" t="str">
-        <v/>
+        <v>1.474</v>
       </c>
       <c r="Q432" t="str">
         <v>1.25</v>
@@ -32413,7 +32413,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F433" t="str">
-        <v/>
+        <v>DV GOLDEN NAILS</v>
       </c>
       <c r="G433" t="str">
         <v/>
@@ -32443,7 +32443,7 @@
         <v/>
       </c>
       <c r="P433" t="str">
-        <v/>
+        <v>90.4416465</v>
       </c>
       <c r="Q433" t="str">
         <v>76.61</v>
@@ -32487,7 +32487,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F434" t="str">
-        <v/>
+        <v>Judy Mok Noval</v>
       </c>
       <c r="G434" t="str">
         <v/>
@@ -32517,7 +32517,7 @@
         <v/>
       </c>
       <c r="P434" t="str">
-        <v/>
+        <v>0.63466</v>
       </c>
       <c r="Q434" t="str">
         <v>0.54</v>
@@ -32561,7 +32561,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F435" t="str">
-        <v/>
+        <v>https://x.alibaba.com/AxMaiO?ck=minisite</v>
       </c>
       <c r="G435" t="str">
         <v/>
@@ -32591,7 +32591,7 @@
         <v/>
       </c>
       <c r="P435" t="str">
-        <v/>
+        <v>1.18</v>
       </c>
       <c r="Q435" t="str">
         <v>1.00</v>
@@ -32635,7 +32635,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F436" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvged?ck=minisite</v>
       </c>
       <c r="G436" t="str">
         <v/>
@@ -32665,7 +32665,7 @@
         <v/>
       </c>
       <c r="P436" t="str">
-        <v/>
+        <v>0.98</v>
       </c>
       <c r="Q436" t="str">
         <v>0.83</v>
@@ -32709,7 +32709,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F437" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G437" t="str">
         <v/>
@@ -32739,7 +32739,7 @@
         <v/>
       </c>
       <c r="P437" t="str">
-        <v/>
+        <v>7.351</v>
       </c>
       <c r="Q437" t="str">
         <v>6.33</v>
@@ -32783,7 +32783,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F438" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=584396325850</v>
       </c>
       <c r="G438" t="str">
         <v/>
@@ -32813,7 +32813,7 @@
         <v/>
       </c>
       <c r="P438" t="str">
-        <v/>
+        <v>0.91</v>
       </c>
       <c r="Q438" t="str">
         <v>0.78</v>
@@ -32857,7 +32857,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F439" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=848686225075</v>
       </c>
       <c r="G439" t="str">
         <v/>
@@ -32887,7 +32887,7 @@
         <v/>
       </c>
       <c r="P439" t="str">
-        <v/>
+        <v>0.86</v>
       </c>
       <c r="Q439" t="str">
         <v>0.73</v>
@@ -32931,7 +32931,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F440" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=916207786270</v>
       </c>
       <c r="G440" t="str">
         <v/>
@@ -32961,7 +32961,7 @@
         <v/>
       </c>
       <c r="P440" t="str">
-        <v/>
+        <v>4.656</v>
       </c>
       <c r="Q440" t="str">
         <v>4.01</v>
@@ -33005,7 +33005,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F441" t="str">
-        <v/>
+        <v>https://x.alibaba.com/Awvged?ck=minisite</v>
       </c>
       <c r="G441" t="str">
         <v/>
@@ -33035,7 +33035,7 @@
         <v/>
       </c>
       <c r="P441" t="str">
-        <v/>
+        <v>0.70575</v>
       </c>
       <c r="Q441" t="str">
         <v>0.60</v>
@@ -33079,7 +33079,7 @@
         <v>Design</v>
       </c>
       <c r="F442" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9bb1w?ck=minisite</v>
       </c>
       <c r="G442" t="str">
         <v/>
@@ -33109,7 +33109,7 @@
         <v/>
       </c>
       <c r="P442" t="str">
-        <v/>
+        <v>22.015</v>
       </c>
       <c r="Q442" t="str">
         <v>18.74</v>
@@ -33153,7 +33153,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F443" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G443" t="str">
         <v/>
@@ -33183,7 +33183,7 @@
         <v/>
       </c>
       <c r="P443" t="str">
-        <v/>
+        <v>2.757</v>
       </c>
       <c r="Q443" t="str">
         <v>2.38</v>
@@ -33227,7 +33227,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F444" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9dy9F?ck=minisite</v>
       </c>
       <c r="G444" t="str">
         <v/>
@@ -33257,7 +33257,7 @@
         <v/>
       </c>
       <c r="P444" t="str">
-        <v/>
+        <v>68.369</v>
       </c>
       <c r="Q444" t="str">
         <v>58.37</v>
@@ -33301,7 +33301,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F445" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9hA6o?ck=minisite</v>
       </c>
       <c r="G445" t="str">
         <v/>
@@ -33331,7 +33331,7 @@
         <v/>
       </c>
       <c r="P445" t="str">
-        <v/>
+        <v>3.684</v>
       </c>
       <c r="Q445" t="str">
         <v>3.15</v>
@@ -33375,7 +33375,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F446" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G446" t="str">
         <v/>
@@ -33405,7 +33405,7 @@
         <v/>
       </c>
       <c r="P446" t="str">
-        <v/>
+        <v>39.575</v>
       </c>
       <c r="Q446" t="str">
         <v>33.79</v>
@@ -33449,7 +33449,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F447" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G447" t="str">
         <v/>
@@ -33479,7 +33479,7 @@
         <v/>
       </c>
       <c r="P447" t="str">
-        <v/>
+        <v>1.345</v>
       </c>
       <c r="Q447" t="str">
         <v>1.15</v>
@@ -33523,7 +33523,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F448" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=789828685629</v>
       </c>
       <c r="G448" t="str">
         <v/>
@@ -33553,7 +33553,7 @@
         <v/>
       </c>
       <c r="P448" t="str">
-        <v/>
+        <v>5.583</v>
       </c>
       <c r="Q448" t="str">
         <v>4.77</v>
@@ -33597,7 +33597,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F449" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=789828685629</v>
       </c>
       <c r="G449" t="str">
         <v/>
@@ -33627,7 +33627,7 @@
         <v/>
       </c>
       <c r="P449" t="str">
-        <v/>
+        <v>5.583</v>
       </c>
       <c r="Q449" t="str">
         <v>4.77</v>
@@ -33671,7 +33671,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F450" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9eAZp?ck=minisite</v>
       </c>
       <c r="G450" t="str">
         <v/>
@@ -33701,7 +33701,7 @@
         <v/>
       </c>
       <c r="P450" t="str">
-        <v/>
+        <v>44.809</v>
       </c>
       <c r="Q450" t="str">
         <v>38.26</v>
@@ -33745,7 +33745,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F451" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9eMcG?ck=minisite</v>
       </c>
       <c r="G451" t="str">
         <v/>
@@ -33775,7 +33775,7 @@
         <v/>
       </c>
       <c r="P451" t="str">
-        <v/>
+        <v>17.521</v>
       </c>
       <c r="Q451" t="str">
         <v>14.96</v>
@@ -33819,7 +33819,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F452" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9eNUF?ck=minisite</v>
       </c>
       <c r="G452" t="str">
         <v/>
@@ -33849,7 +33849,7 @@
         <v/>
       </c>
       <c r="P452" t="str">
-        <v/>
+        <v>6.331</v>
       </c>
       <c r="Q452" t="str">
         <v>5.41</v>
@@ -33893,7 +33893,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F453" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=776196979038</v>
       </c>
       <c r="G453" t="str">
         <v/>
@@ -33923,7 +33923,7 @@
         <v/>
       </c>
       <c r="P453" t="str">
-        <v/>
+        <v>2.429</v>
       </c>
       <c r="Q453" t="str">
         <v>2.07</v>
@@ -33967,7 +33967,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F454" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9rPH4?ck=minisite</v>
       </c>
       <c r="G454" t="str">
         <v/>
@@ -33997,7 +33997,7 @@
         <v/>
       </c>
       <c r="P454" t="str">
-        <v/>
+        <v>1.82</v>
       </c>
       <c r="Q454" t="str">
         <v>1.56</v>
@@ -34041,7 +34041,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F455" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9dy4S?ck=minisite</v>
       </c>
       <c r="G455" t="str">
         <v/>
@@ -34071,7 +34071,7 @@
         <v/>
       </c>
       <c r="P455" t="str">
-        <v/>
+        <v>2.072</v>
       </c>
       <c r="Q455" t="str">
         <v>1.77</v>
@@ -34115,7 +34115,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F456" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vKeF?ck=minisite</v>
       </c>
       <c r="G456" t="str">
         <v/>
@@ -34145,7 +34145,7 @@
         <v/>
       </c>
       <c r="P456" t="str">
-        <v/>
+        <v>24.732</v>
       </c>
       <c r="Q456" t="str">
         <v>21.32</v>
@@ -34189,7 +34189,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F457" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vKeF?ck=minisite</v>
       </c>
       <c r="G457" t="str">
         <v/>
@@ -34219,7 +34219,7 @@
         <v/>
       </c>
       <c r="P457" t="str">
-        <v/>
+        <v>49.464</v>
       </c>
       <c r="Q457" t="str">
         <v>42.64</v>
@@ -34263,7 +34263,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F458" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vKeF?ck=minisite</v>
       </c>
       <c r="G458" t="str">
         <v/>
@@ -34293,7 +34293,7 @@
         <v/>
       </c>
       <c r="P458" t="str">
-        <v/>
+        <v>25.479</v>
       </c>
       <c r="Q458" t="str">
         <v>21.96</v>
@@ -34337,7 +34337,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F459" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vKeF?ck=minisite</v>
       </c>
       <c r="G459" t="str">
         <v/>
@@ -34367,7 +34367,7 @@
         <v/>
       </c>
       <c r="P459" t="str">
-        <v/>
+        <v>50.959</v>
       </c>
       <c r="Q459" t="str">
         <v>43.93</v>
@@ -34411,7 +34411,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F460" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXUc?ck=minisite</v>
       </c>
       <c r="G460" t="str">
         <v/>
@@ -34441,7 +34441,7 @@
         <v/>
       </c>
       <c r="P460" t="str">
-        <v/>
+        <v>32.146</v>
       </c>
       <c r="Q460" t="str">
         <v>27.70</v>
@@ -34485,7 +34485,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F461" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9oSxz?ck=minisite</v>
       </c>
       <c r="G461" t="str">
         <v/>
@@ -34515,7 +34515,7 @@
         <v/>
       </c>
       <c r="P461" t="str">
-        <v/>
+        <v>2.066</v>
       </c>
       <c r="Q461" t="str">
         <v>1.76</v>
@@ -34559,7 +34559,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F462" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9rNNb?ck=minisite</v>
       </c>
       <c r="G462" t="str">
         <v/>
@@ -34589,7 +34589,7 @@
         <v/>
       </c>
       <c r="P462" t="str">
-        <v/>
+        <v>0.971</v>
       </c>
       <c r="Q462" t="str">
         <v>0.83</v>
@@ -34633,7 +34633,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F463" t="str">
-        <v/>
+        <v>DEP Nails</v>
       </c>
       <c r="G463" t="str">
         <v/>
@@ -34663,7 +34663,7 @@
         <v/>
       </c>
       <c r="P463" t="str">
-        <v/>
+        <v>59.5840086</v>
       </c>
       <c r="Q463" t="str">
         <v>50.94</v>
@@ -34707,7 +34707,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F464" t="str">
-        <v/>
+        <v>DEP</v>
       </c>
       <c r="G464" t="str">
         <v/>
@@ -34737,7 +34737,7 @@
         <v/>
       </c>
       <c r="P464" t="str">
-        <v/>
+        <v>46.062</v>
       </c>
       <c r="Q464" t="str">
         <v>40.00</v>
@@ -34781,7 +34781,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F465" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=811624875892</v>
       </c>
       <c r="G465" t="str">
         <v/>
@@ -34811,7 +34811,7 @@
         <v/>
       </c>
       <c r="P465" t="str">
-        <v/>
+        <v>1.311</v>
       </c>
       <c r="Q465" t="str">
         <v>1.13</v>
@@ -34855,7 +34855,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F466" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G466" t="str">
         <v/>
@@ -34885,7 +34885,7 @@
         <v/>
       </c>
       <c r="P466" t="str">
-        <v/>
+        <v>0.963</v>
       </c>
       <c r="Q466" t="str">
         <v>0.83</v>
@@ -34929,7 +34929,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F467" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G467" t="str">
         <v/>
@@ -34959,7 +34959,7 @@
         <v/>
       </c>
       <c r="P467" t="str">
-        <v/>
+        <v>13.429</v>
       </c>
       <c r="Q467" t="str">
         <v>11.58</v>
@@ -35003,7 +35003,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F468" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G468" t="str">
         <v/>
@@ -35033,7 +35033,7 @@
         <v/>
       </c>
       <c r="P468" t="str">
-        <v/>
+        <v>5.295</v>
       </c>
       <c r="Q468" t="str">
         <v>4.56</v>
@@ -35077,7 +35077,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F469" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G469" t="str">
         <v/>
@@ -35107,7 +35107,7 @@
         <v/>
       </c>
       <c r="P469" t="str">
-        <v/>
+        <v>16.168</v>
       </c>
       <c r="Q469" t="str">
         <v>13.94</v>
@@ -35151,7 +35151,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F470" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vKeF?ck=minisite</v>
       </c>
       <c r="G470" t="str">
         <v/>
@@ -35181,7 +35181,7 @@
         <v/>
       </c>
       <c r="P470" t="str">
-        <v/>
+        <v>14.268</v>
       </c>
       <c r="Q470" t="str">
         <v>12.30</v>
@@ -35225,7 +35225,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F471" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1l9vKeF?ck=minisite</v>
       </c>
       <c r="G471" t="str">
         <v/>
@@ -35255,7 +35255,7 @@
         <v/>
       </c>
       <c r="P471" t="str">
-        <v/>
+        <v>14.268</v>
       </c>
       <c r="Q471" t="str">
         <v>12.30</v>
@@ -35299,7 +35299,7 @@
         <v>Dũa</v>
       </c>
       <c r="F472" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0t4H?ck=minisite</v>
       </c>
       <c r="G472" t="str">
         <v/>
@@ -35329,7 +35329,7 @@
         <v/>
       </c>
       <c r="P472" t="str">
-        <v/>
+        <v>16.535</v>
       </c>
       <c r="Q472" t="str">
         <v>14.34</v>
@@ -35373,7 +35373,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F473" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G473" t="str">
         <v/>
@@ -35403,7 +35403,7 @@
         <v/>
       </c>
       <c r="P473" t="str">
-        <v/>
+        <v>41.8</v>
       </c>
       <c r="Q473" t="str">
         <v>36.24</v>
@@ -35447,7 +35447,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F474" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0tMO?ck=minisite</v>
       </c>
       <c r="G474" t="str">
         <v/>
@@ -35477,7 +35477,7 @@
         <v/>
       </c>
       <c r="P474" t="str">
-        <v/>
+        <v>95.901</v>
       </c>
       <c r="Q474" t="str">
         <v>83.14</v>
@@ -35521,7 +35521,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F475" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0tMk?ck=minisite</v>
       </c>
       <c r="G475" t="str">
         <v/>
@@ -35551,7 +35551,7 @@
         <v/>
       </c>
       <c r="P475" t="str">
-        <v/>
+        <v>31.416</v>
       </c>
       <c r="Q475" t="str">
         <v>27.24</v>
@@ -35595,7 +35595,7 @@
         <v>Tips</v>
       </c>
       <c r="F476" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA0tNE?ck=minisite</v>
       </c>
       <c r="G476" t="str">
         <v/>
@@ -35625,7 +35625,7 @@
         <v/>
       </c>
       <c r="P476" t="str">
-        <v/>
+        <v>0.992</v>
       </c>
       <c r="Q476" t="str">
         <v>0.86</v>
@@ -35669,7 +35669,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F477" t="str">
-        <v/>
+        <v>mango wu</v>
       </c>
       <c r="G477" t="str">
         <v/>
@@ -35699,7 +35699,7 @@
         <v/>
       </c>
       <c r="P477" t="str">
-        <v/>
+        <v>19.511</v>
       </c>
       <c r="Q477" t="str">
         <v>16.92</v>
@@ -35743,7 +35743,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F478" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=564661078585</v>
       </c>
       <c r="G478" t="str">
         <v/>
@@ -35773,7 +35773,7 @@
         <v/>
       </c>
       <c r="P478" t="str">
-        <v/>
+        <v>3.348</v>
       </c>
       <c r="Q478" t="str">
         <v>2.90</v>
@@ -35817,7 +35817,7 @@
         <v>Tips</v>
       </c>
       <c r="F479" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1DQ6?ck=minisite</v>
       </c>
       <c r="G479" t="str">
         <v/>
@@ -35847,7 +35847,7 @@
         <v/>
       </c>
       <c r="P479" t="str">
-        <v/>
+        <v>0.3718</v>
       </c>
       <c r="Q479" t="str">
         <v>0.32</v>
@@ -35891,7 +35891,7 @@
         <v>Tips</v>
       </c>
       <c r="F480" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1DQ6?ck=minisite</v>
       </c>
       <c r="G480" t="str">
         <v/>
@@ -35921,7 +35921,7 @@
         <v/>
       </c>
       <c r="P480" t="str">
-        <v/>
+        <v>0.3718</v>
       </c>
       <c r="Q480" t="str">
         <v>0.32</v>
@@ -35965,7 +35965,7 @@
         <v>Tips</v>
       </c>
       <c r="F481" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1DQ6?ck=minisite</v>
       </c>
       <c r="G481" t="str">
         <v/>
@@ -35995,7 +35995,7 @@
         <v/>
       </c>
       <c r="P481" t="str">
-        <v/>
+        <v>0.3218</v>
       </c>
       <c r="Q481" t="str">
         <v>0.28</v>
@@ -36039,7 +36039,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F482" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=673850966271</v>
       </c>
       <c r="G482" t="str">
         <v/>
@@ -36069,7 +36069,7 @@
         <v/>
       </c>
       <c r="P482" t="str">
-        <v/>
+        <v>1.251</v>
       </c>
       <c r="Q482" t="str">
         <v>1.09</v>
@@ -36113,7 +36113,7 @@
         <v>Bút</v>
       </c>
       <c r="F483" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1IY2?ck=minisite</v>
       </c>
       <c r="G483" t="str">
         <v/>
@@ -36143,7 +36143,7 @@
         <v/>
       </c>
       <c r="P483" t="str">
-        <v/>
+        <v>3.031</v>
       </c>
       <c r="Q483" t="str">
         <v>2.63</v>
@@ -36187,7 +36187,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F484" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G484" t="str">
         <v/>
@@ -36217,7 +36217,7 @@
         <v/>
       </c>
       <c r="P484" t="str">
-        <v/>
+        <v>4.188</v>
       </c>
       <c r="Q484" t="str">
         <v>3.64</v>
@@ -36261,7 +36261,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F485" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G485" t="str">
         <v/>
@@ -36291,7 +36291,7 @@
         <v/>
       </c>
       <c r="P485" t="str">
-        <v/>
+        <v>5.788</v>
       </c>
       <c r="Q485" t="str">
         <v>5.03</v>
@@ -36335,7 +36335,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F486" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G486" t="str">
         <v/>
@@ -36365,7 +36365,7 @@
         <v/>
       </c>
       <c r="P486" t="str">
-        <v/>
+        <v>0.788</v>
       </c>
       <c r="Q486" t="str">
         <v>0.68</v>
@@ -36409,7 +36409,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F487" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1JA4?ck=minisite</v>
       </c>
       <c r="G487" t="str">
         <v/>
@@ -36439,7 +36439,7 @@
         <v/>
       </c>
       <c r="P487" t="str">
-        <v/>
+        <v>38.486</v>
       </c>
       <c r="Q487" t="str">
         <v>33.42</v>
@@ -36483,7 +36483,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F488" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=907112151894</v>
       </c>
       <c r="G488" t="str">
         <v/>
@@ -36513,7 +36513,7 @@
         <v/>
       </c>
       <c r="P488" t="str">
-        <v/>
+        <v>0.145</v>
       </c>
       <c r="Q488" t="str">
         <v>0.13</v>
@@ -36557,7 +36557,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F489" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G489" t="str">
         <v/>
@@ -36587,7 +36587,7 @@
         <v/>
       </c>
       <c r="P489" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q489" t="str">
         <v>21.14</v>
@@ -36631,7 +36631,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F490" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G490" t="str">
         <v/>
@@ -36661,7 +36661,7 @@
         <v/>
       </c>
       <c r="P490" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q490" t="str">
         <v>21.14</v>
@@ -36705,7 +36705,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F491" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G491" t="str">
         <v/>
@@ -36735,7 +36735,7 @@
         <v/>
       </c>
       <c r="P491" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q491" t="str">
         <v>21.14</v>
@@ -36779,7 +36779,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F492" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G492" t="str">
         <v/>
@@ -36809,7 +36809,7 @@
         <v/>
       </c>
       <c r="P492" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q492" t="str">
         <v>21.14</v>
@@ -36853,7 +36853,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F493" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G493" t="str">
         <v/>
@@ -36883,7 +36883,7 @@
         <v/>
       </c>
       <c r="P493" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q493" t="str">
         <v>21.14</v>
@@ -36927,7 +36927,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F494" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G494" t="str">
         <v/>
@@ -36957,7 +36957,7 @@
         <v/>
       </c>
       <c r="P494" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q494" t="str">
         <v>21.14</v>
@@ -37001,7 +37001,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F495" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G495" t="str">
         <v/>
@@ -37031,7 +37031,7 @@
         <v/>
       </c>
       <c r="P495" t="str">
-        <v/>
+        <v>24.35</v>
       </c>
       <c r="Q495" t="str">
         <v>21.14</v>
@@ -37075,7 +37075,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F496" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G496" t="str">
         <v/>
@@ -37105,7 +37105,7 @@
         <v/>
       </c>
       <c r="P496" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q496" t="str">
         <v>5.08</v>
@@ -37149,7 +37149,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F497" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G497" t="str">
         <v/>
@@ -37179,7 +37179,7 @@
         <v/>
       </c>
       <c r="P497" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q497" t="str">
         <v>5.08</v>
@@ -37223,7 +37223,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F498" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G498" t="str">
         <v/>
@@ -37253,7 +37253,7 @@
         <v/>
       </c>
       <c r="P498" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q498" t="str">
         <v>5.08</v>
@@ -37297,7 +37297,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F499" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G499" t="str">
         <v/>
@@ -37327,7 +37327,7 @@
         <v/>
       </c>
       <c r="P499" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q499" t="str">
         <v>5.08</v>
@@ -37371,7 +37371,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F500" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G500" t="str">
         <v/>
@@ -37401,7 +37401,7 @@
         <v/>
       </c>
       <c r="P500" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q500" t="str">
         <v>5.08</v>
@@ -37445,7 +37445,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F501" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G501" t="str">
         <v/>
@@ -37475,7 +37475,7 @@
         <v/>
       </c>
       <c r="P501" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q501" t="str">
         <v>5.08</v>
@@ -37519,7 +37519,7 @@
         <v>Gel đắp</v>
       </c>
       <c r="F502" t="str">
-        <v/>
+        <v>XGM</v>
       </c>
       <c r="G502" t="str">
         <v/>
@@ -37549,7 +37549,7 @@
         <v/>
       </c>
       <c r="P502" t="str">
-        <v/>
+        <v>5.85</v>
       </c>
       <c r="Q502" t="str">
         <v>5.08</v>
@@ -37593,7 +37593,7 @@
         <v>Top Coat</v>
       </c>
       <c r="F503" t="str">
-        <v/>
+        <v>EBD</v>
       </c>
       <c r="G503" t="str">
         <v/>
@@ -37623,7 +37623,7 @@
         <v/>
       </c>
       <c r="P503" t="str">
-        <v/>
+        <v>16.677</v>
       </c>
       <c r="Q503" t="str">
         <v>14.48</v>
@@ -37667,7 +37667,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F504" t="str">
-        <v/>
+        <v>DEP</v>
       </c>
       <c r="G504" t="str">
         <v/>
@@ -37697,7 +37697,7 @@
         <v/>
       </c>
       <c r="P504" t="str">
-        <v/>
+        <v>24.22</v>
       </c>
       <c r="Q504" t="str">
         <v>21.03</v>
@@ -37741,7 +37741,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F505" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lA1JUO?ck=minisite</v>
       </c>
       <c r="G505" t="str">
         <v/>
@@ -37771,7 +37771,7 @@
         <v/>
       </c>
       <c r="P505" t="str">
-        <v/>
+        <v>28.518</v>
       </c>
       <c r="Q505" t="str">
         <v>24.76</v>
@@ -37815,7 +37815,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F506" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G506" t="str">
         <v/>
@@ -37845,7 +37845,7 @@
         <v/>
       </c>
       <c r="P506" t="str">
-        <v/>
+        <v>6.176</v>
       </c>
       <c r="Q506" t="str">
         <v>5.36</v>
@@ -37889,7 +37889,7 @@
         <v>Noel</v>
       </c>
       <c r="F507" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G507" t="str">
         <v/>
@@ -37919,7 +37919,7 @@
         <v/>
       </c>
       <c r="P507" t="str">
-        <v/>
+        <v>28.82</v>
       </c>
       <c r="Q507" t="str">
         <v>25.02</v>
@@ -37963,7 +37963,7 @@
         <v>Noel</v>
       </c>
       <c r="F508" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G508" t="str">
         <v/>
@@ -37993,7 +37993,7 @@
         <v/>
       </c>
       <c r="P508" t="str">
-        <v/>
+        <v>0.343</v>
       </c>
       <c r="Q508" t="str">
         <v>0.30</v>
@@ -38037,7 +38037,7 @@
         <v>Noel</v>
       </c>
       <c r="F509" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G509" t="str">
         <v/>
@@ -38067,7 +38067,7 @@
         <v/>
       </c>
       <c r="P509" t="str">
-        <v/>
+        <v>1.304</v>
       </c>
       <c r="Q509" t="str">
         <v>1.13</v>
@@ -38111,7 +38111,7 @@
         <v>Noel</v>
       </c>
       <c r="F510" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G510" t="str">
         <v/>
@@ -38141,7 +38141,7 @@
         <v/>
       </c>
       <c r="P510" t="str">
-        <v/>
+        <v>16.812</v>
       </c>
       <c r="Q510" t="str">
         <v>14.59</v>
@@ -38185,7 +38185,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F511" t="str">
-        <v/>
+        <v>Noval</v>
       </c>
       <c r="G511" t="str">
         <v/>
@@ -38215,7 +38215,7 @@
         <v/>
       </c>
       <c r="P511" t="str">
-        <v/>
+        <v>13.69</v>
       </c>
       <c r="Q511" t="str">
         <v>11.76</v>
@@ -38259,7 +38259,7 @@
         <v>Bột</v>
       </c>
       <c r="F512" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G512" t="str">
         <v/>
@@ -38289,7 +38289,7 @@
         <v/>
       </c>
       <c r="P512" t="str">
-        <v/>
+        <v>20.478</v>
       </c>
       <c r="Q512" t="str">
         <v>17.59</v>
@@ -38333,7 +38333,7 @@
         <v>Bột</v>
       </c>
       <c r="F513" t="str">
-        <v/>
+        <v>Keystone</v>
       </c>
       <c r="G513" t="str">
         <v/>
@@ -38363,7 +38363,7 @@
         <v/>
       </c>
       <c r="P513" t="str">
-        <v/>
+        <v>21.393</v>
       </c>
       <c r="Q513" t="str">
         <v>18.38</v>
@@ -38407,7 +38407,7 @@
         <v>Đầu bào</v>
       </c>
       <c r="F514" t="str">
-        <v/>
+        <v>Xiangrui</v>
       </c>
       <c r="G514" t="str">
         <v/>
@@ -38437,7 +38437,7 @@
         <v/>
       </c>
       <c r="P514" t="str">
-        <v/>
+        <v>3.038</v>
       </c>
       <c r="Q514" t="str">
         <v>0.00</v>
@@ -38481,7 +38481,7 @@
         <v>Pedicure</v>
       </c>
       <c r="F515" t="str">
-        <v/>
+        <v>http://detail.m.1688.com/page/index.htm?offerId=668608652766</v>
       </c>
       <c r="G515" t="str">
         <v/>
@@ -38511,7 +38511,7 @@
         <v/>
       </c>
       <c r="P515" t="str">
-        <v/>
+        <v>1.319</v>
       </c>
       <c r="Q515" t="str">
         <v>1.14</v>
@@ -38555,7 +38555,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F516" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADJMk?ck=minisite</v>
       </c>
       <c r="G516" t="str">
         <v/>
@@ -38585,7 +38585,7 @@
         <v/>
       </c>
       <c r="P516" t="str">
-        <v/>
+        <v>1.539</v>
       </c>
       <c r="Q516" t="str">
         <v>1.33</v>
@@ -38629,7 +38629,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F517" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADJMk?ck=minisite</v>
       </c>
       <c r="G517" t="str">
         <v/>
@@ -38659,7 +38659,7 @@
         <v/>
       </c>
       <c r="P517" t="str">
-        <v/>
+        <v>1.539</v>
       </c>
       <c r="Q517" t="str">
         <v>1.33</v>
@@ -38703,7 +38703,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F518" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADJMk?ck=minisite</v>
       </c>
       <c r="G518" t="str">
         <v/>
@@ -38733,7 +38733,7 @@
         <v/>
       </c>
       <c r="P518" t="str">
-        <v/>
+        <v>1.539</v>
       </c>
       <c r="Q518" t="str">
         <v>1.33</v>
@@ -38777,7 +38777,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F519" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADJMk?ck=minisite</v>
       </c>
       <c r="G519" t="str">
         <v/>
@@ -38807,7 +38807,7 @@
         <v/>
       </c>
       <c r="P519" t="str">
-        <v/>
+        <v>1.055</v>
       </c>
       <c r="Q519" t="str">
         <v>0.91</v>
@@ -38851,7 +38851,7 @@
         <v>Đồ điện</v>
       </c>
       <c r="F520" t="str">
-        <v/>
+        <v>Guangzhou City Ex-Lion Trade Co.</v>
       </c>
       <c r="G520" t="str">
         <v/>
@@ -38881,7 +38881,7 @@
         <v/>
       </c>
       <c r="P520" t="str">
-        <v/>
+        <v>41.765</v>
       </c>
       <c r="Q520" t="str">
         <v>35.99</v>
@@ -38925,7 +38925,7 @@
         <v>Design</v>
       </c>
       <c r="F521" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G521" t="str">
         <v/>
@@ -38955,7 +38955,7 @@
         <v/>
       </c>
       <c r="P521" t="str">
-        <v/>
+        <v>3.369</v>
       </c>
       <c r="Q521" t="str">
         <v>2.90</v>
@@ -38999,7 +38999,7 @@
         <v>Design</v>
       </c>
       <c r="F522" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G522" t="str">
         <v/>
@@ -39029,7 +39029,7 @@
         <v/>
       </c>
       <c r="P522" t="str">
-        <v/>
+        <v>3.369</v>
       </c>
       <c r="Q522" t="str">
         <v>2.90</v>
@@ -39073,7 +39073,7 @@
         <v>Design</v>
       </c>
       <c r="F523" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G523" t="str">
         <v/>
@@ -39103,7 +39103,7 @@
         <v/>
       </c>
       <c r="P523" t="str">
-        <v/>
+        <v>3.369</v>
       </c>
       <c r="Q523" t="str">
         <v>2.90</v>
@@ -39147,7 +39147,7 @@
         <v>Design</v>
       </c>
       <c r="F524" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G524" t="str">
         <v/>
@@ -39177,7 +39177,7 @@
         <v/>
       </c>
       <c r="P524" t="str">
-        <v/>
+        <v>3.369</v>
       </c>
       <c r="Q524" t="str">
         <v>2.90</v>
@@ -39221,7 +39221,7 @@
         <v>Hoá chất</v>
       </c>
       <c r="F525" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G525" t="str">
         <v/>
@@ -39251,7 +39251,7 @@
         <v/>
       </c>
       <c r="P525" t="str">
-        <v/>
+        <v>0.842</v>
       </c>
       <c r="Q525" t="str">
         <v>0.73</v>
@@ -39295,7 +39295,7 @@
         <v>Tools &amp; Accessories</v>
       </c>
       <c r="F526" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G526" t="str">
         <v/>
@@ -39325,7 +39325,7 @@
         <v/>
       </c>
       <c r="P526" t="str">
-        <v/>
+        <v>0.842</v>
       </c>
       <c r="Q526" t="str">
         <v>0.73</v>
@@ -39369,7 +39369,7 @@
         <v>Design</v>
       </c>
       <c r="F527" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G527" t="str">
         <v/>
@@ -39399,7 +39399,7 @@
         <v/>
       </c>
       <c r="P527" t="str">
-        <v/>
+        <v>6.892</v>
       </c>
       <c r="Q527" t="str">
         <v>5.94</v>
@@ -39443,7 +39443,7 @@
         <v>Design</v>
       </c>
       <c r="F528" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G528" t="str">
         <v/>
@@ -39473,7 +39473,7 @@
         <v/>
       </c>
       <c r="P528" t="str">
-        <v/>
+        <v>3.063</v>
       </c>
       <c r="Q528" t="str">
         <v>2.64</v>
@@ -39517,7 +39517,7 @@
         <v>Design</v>
       </c>
       <c r="F529" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G529" t="str">
         <v/>
@@ -39547,7 +39547,7 @@
         <v/>
       </c>
       <c r="P529" t="str">
-        <v/>
+        <v>3.063</v>
       </c>
       <c r="Q529" t="str">
         <v>2.64</v>
@@ -39591,7 +39591,7 @@
         <v>Design</v>
       </c>
       <c r="F530" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G530" t="str">
         <v/>
@@ -39621,7 +39621,7 @@
         <v/>
       </c>
       <c r="P530" t="str">
-        <v/>
+        <v>3.063</v>
       </c>
       <c r="Q530" t="str">
         <v>2.64</v>
@@ -39665,7 +39665,7 @@
         <v>Design</v>
       </c>
       <c r="F531" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADXIy?ck=minisite</v>
       </c>
       <c r="G531" t="str">
         <v/>
@@ -39695,7 +39695,7 @@
         <v/>
       </c>
       <c r="P531" t="str">
-        <v/>
+        <v>3.063</v>
       </c>
       <c r="Q531" t="str">
         <v>2.64</v>
@@ -39739,7 +39739,7 @@
         <v>Sơn màu</v>
       </c>
       <c r="F532" t="str">
-        <v/>
+        <v>https://x.alibaba.com/1lADY4F?ck=minisite</v>
       </c>
       <c r="G532" t="str">
         <v/>
@@ -39769,7 +39769,7 @@
         <v/>
       </c>
       <c r="P532" t="str">
-        <v/>
+        <v>37.015</v>
       </c>
       <c r="Q532" t="str">
         <v>31.90</v>
